--- a/Code/Data/DJI/Efficient Portfolios with Prediction/Manual Recurrence/input 125/DJI_efficient_portfolios_and_returns_with_prediction_annual.xlsx
+++ b/Code/Data/DJI/Efficient Portfolios with Prediction/Manual Recurrence/input 125/DJI_efficient_portfolios_and_returns_with_prediction_annual.xlsx
@@ -620,94 +620,94 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.299265978218629</v>
+        <v>0.2905511428105197</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02286430851743955</v>
+        <v>0.01282254727032959</v>
       </c>
       <c r="G2" t="n">
-        <v>0.007483967847883441</v>
+        <v>0.004296766936930422</v>
       </c>
       <c r="H2" t="n">
-        <v>1.009330798271373e-05</v>
+        <v>0.01329895361932022</v>
       </c>
       <c r="I2" t="n">
-        <v>0.031057881678427</v>
+        <v>0.05644944541653056</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01880140543076496</v>
+        <v>0.06078381005237786</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05584040482854713</v>
+        <v>0.03385820099084969</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01541232870676974</v>
+        <v>0.0001845283776413093</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04417503419389124</v>
+        <v>0.04659711244401249</v>
       </c>
       <c r="N2" t="n">
-        <v>0.047329137242332</v>
+        <v>0.05476577805477862</v>
       </c>
       <c r="O2" t="n">
-        <v>0.006670698523900596</v>
+        <v>0.03874879514412739</v>
       </c>
       <c r="P2" t="n">
-        <v>0.02573963599521834</v>
+        <v>0.06327194494027022</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.04102877936563477</v>
+        <v>0.06630550805757308</v>
       </c>
       <c r="R2" t="n">
-        <v>0.006734695708684721</v>
+        <v>0.009954336587985491</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03914228903353383</v>
+        <v>0.01801468199791849</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0701830378006682</v>
+        <v>0.05614180499005297</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05695014473465346</v>
+        <v>0.05569585411297329</v>
       </c>
       <c r="V2" t="n">
-        <v>0.05561541372193987</v>
+        <v>0.06021358508503286</v>
       </c>
       <c r="W2" t="n">
-        <v>0.06977167670037013</v>
+        <v>0.05738687624773491</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0460139427974051</v>
+        <v>0.06159436010257664</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.07521485554068129</v>
+        <v>0.003741579652028942</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.009902694417117733</v>
+        <v>0.05274285734630413</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.007577129244064</v>
+        <v>0.00790075556278586</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01599783465132177</v>
+        <v>0.002870363023847912</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.04003787223845547</v>
+        <v>0.003603291737646322</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.05835869262349968</v>
+        <v>0.06549747437397609</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.02301817329982175</v>
+        <v>0.04576239368615942</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.05167317081437892</v>
+        <v>0.01027848925414923</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0573947010346126</v>
+        <v>0.03721790493408582</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.1317105053769658</v>
+        <v>0.1029094938796418</v>
       </c>
     </row>
     <row r="3">
@@ -730,94 +730,94 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.6999859100256294</v>
+        <v>1.032612295978513</v>
       </c>
       <c r="F3" t="n">
-        <v>3.335208908481894e-06</v>
+        <v>1.178127910221875e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04787515993421902</v>
+        <v>0.05670803058719882</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04855204880126278</v>
+        <v>0.05315923728027568</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03795703899579813</v>
+        <v>0.04157954908512207</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02015892841875025</v>
+        <v>0.02318855776743263</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01788310295435181</v>
+        <v>0.02001153212333305</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03810243311366543</v>
+        <v>0.01401320718842125</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04454027084401217</v>
+        <v>0.04445600164769042</v>
       </c>
       <c r="N3" t="n">
-        <v>0.05622153917824693</v>
+        <v>0.01044774271091863</v>
       </c>
       <c r="O3" t="n">
-        <v>0.06480568699367563</v>
+        <v>0.0042415248832012</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00224658330091935</v>
+        <v>0.06411162729693801</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02098158025306688</v>
+        <v>0.0606372509968106</v>
       </c>
       <c r="R3" t="n">
-        <v>0.04851194138010964</v>
+        <v>0.05338347562555006</v>
       </c>
       <c r="S3" t="n">
-        <v>0.06516217876817156</v>
+        <v>0.01136131894789828</v>
       </c>
       <c r="T3" t="n">
-        <v>0.04403372623361405</v>
+        <v>0.0550077929629471</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05766818272138327</v>
+        <v>0.02830686072942311</v>
       </c>
       <c r="V3" t="n">
-        <v>0.05814516554407115</v>
+        <v>0.05542793982394483</v>
       </c>
       <c r="W3" t="n">
-        <v>0.03848891223184326</v>
+        <v>0.05547231662950208</v>
       </c>
       <c r="X3" t="n">
-        <v>0.008904814974358251</v>
+        <v>0.03682700629046681</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0394199607587644</v>
+        <v>0.03355863109450882</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.05394507512320229</v>
+        <v>0.02335693108223866</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.001041020302844726</v>
+        <v>0.02670166922532234</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.004819964809826167</v>
+        <v>0.06822856803200203</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.05878674133999361</v>
+        <v>0.0128023515093572</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.02430240870126006</v>
+        <v>6.045241507999597e-05</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.02543397742955301</v>
+        <v>0.03448882255897091</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.003580372823505431</v>
+        <v>0.05378157913362931</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.06842784886062224</v>
+        <v>0.05866824109271391</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.07568980066566808</v>
+        <v>0.05046814156701202</v>
       </c>
     </row>
     <row r="4">
@@ -840,94 +840,94 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1371614289783446</v>
+        <v>0.1377475482364736</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00196409660431414</v>
+        <v>0.001544133856802128</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06318982977741953</v>
+        <v>0.06214789149627756</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07694742085947509</v>
+        <v>0.02163100492820487</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05881196618156848</v>
+        <v>0.06241657392366854</v>
       </c>
       <c r="J4" t="n">
-        <v>0.008268199646638483</v>
+        <v>0.05845761708293529</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004227679085410955</v>
+        <v>0.00897193306962254</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01173327360661899</v>
+        <v>0.05007761874815259</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02843219489358631</v>
+        <v>0.06022348235809514</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05317867928912916</v>
+        <v>0.05701897124401298</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0002442144136461414</v>
+        <v>0.008416900939672695</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04104593275976089</v>
+        <v>0.05487312716992727</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03275828111909564</v>
+        <v>1.272816118668926e-05</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01849529167605796</v>
+        <v>0.03946671338154297</v>
       </c>
       <c r="S4" t="n">
-        <v>0.006982229436873539</v>
+        <v>0.02009279504137917</v>
       </c>
       <c r="T4" t="n">
-        <v>0.06508759458299969</v>
+        <v>0.0482867227212106</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07492287064774655</v>
+        <v>0.04643162539065367</v>
       </c>
       <c r="V4" t="n">
-        <v>0.008745912712279555</v>
+        <v>0.04113130872298506</v>
       </c>
       <c r="W4" t="n">
-        <v>0.05103190437408143</v>
+        <v>0.06284243295350507</v>
       </c>
       <c r="X4" t="n">
-        <v>0.06716852842155396</v>
+        <v>0.05189840712990931</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.009860134976869014</v>
+        <v>0.003714112780464653</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.004161056721121297</v>
+        <v>0.02131533548593077</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.02029812069394578</v>
+        <v>0.009067720208498997</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.05786191180343952</v>
+        <v>0.02381053966879945</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.03154856286984298</v>
+        <v>0.05393339037003415</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.02444090701411607</v>
+        <v>0.05348784638217292</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.07679649374382858</v>
+        <v>0.02768793255321631</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.02194383413776994</v>
+        <v>0.00603893249817996</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.07985287795081057</v>
+        <v>0.04500220173295859</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.287430260856905</v>
+        <v>-0.2936424821544729</v>
       </c>
     </row>
     <row r="5">
@@ -950,94 +950,94 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.5217433306189437</v>
+        <v>0.5023725269764594</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003961356021837469</v>
+        <v>0.001058322170033513</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06883236946501864</v>
+        <v>0.03657679667173632</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03561905777399107</v>
+        <v>0.03767521575234798</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04102006357130777</v>
+        <v>0.05440876078812076</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0741757425796261</v>
+        <v>0.06967107955064521</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0613870998141829</v>
+        <v>0.05834077244446589</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02422179473467398</v>
+        <v>0.02875192105976172</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02161873230700522</v>
+        <v>0.010246128134789</v>
       </c>
       <c r="N5" t="n">
-        <v>0.04104103866497474</v>
+        <v>0.01699536063209568</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01856425025588405</v>
+        <v>0.05068289632236764</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0720275198723884</v>
+        <v>0.06440594848714376</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.009231864472327321</v>
+        <v>0.017576121704616</v>
       </c>
       <c r="R5" t="n">
-        <v>0.003937762528709927</v>
+        <v>0.005915002862784195</v>
       </c>
       <c r="S5" t="n">
-        <v>0.009925077206499744</v>
+        <v>0.07204194437774833</v>
       </c>
       <c r="T5" t="n">
-        <v>0.05960128628297391</v>
+        <v>0.04835296921764517</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0550892758377244</v>
+        <v>0.001814311168588091</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01876166136728055</v>
+        <v>0.04059442077201837</v>
       </c>
       <c r="W5" t="n">
-        <v>0.08029695681897968</v>
+        <v>0.06156739451828963</v>
       </c>
       <c r="X5" t="n">
-        <v>0.06135241372081741</v>
+        <v>0.01939226305502944</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001136923257267735</v>
+        <v>0.01159667395859246</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.02460893825759832</v>
+        <v>0.009011743798947373</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.01654728477390423</v>
+        <v>0.04214888008977041</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.02608755019767103</v>
+        <v>0.05392097981265147</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.04299803401572488</v>
+        <v>0.06857206257830828</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.001085956690900574</v>
+        <v>0.02445946501566203</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.002936655809758782</v>
+        <v>0.01202122934731855</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.04487646852874932</v>
+        <v>0.009115838448571709</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.07905686517222178</v>
+        <v>0.07308549725995099</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.2743899429580817</v>
+        <v>-0.3384204055881737</v>
       </c>
     </row>
     <row r="6">
@@ -1060,94 +1060,94 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2308286492832466</v>
+        <v>0.2361987673907815</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0008427441222082898</v>
+        <v>0.02786969454112235</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03717799712201954</v>
+        <v>0.03994051123225437</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01926195482400011</v>
+        <v>0.03618254322738258</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003991196457573812</v>
+        <v>0.04104374770113275</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02756329439162691</v>
+        <v>0.01161240319240459</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002509615446211736</v>
+        <v>0.01224640437089096</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00934468361051442</v>
+        <v>0.0154400623112368</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0617014323773809</v>
+        <v>0.0512941739537122</v>
       </c>
       <c r="N6" t="n">
-        <v>0.006368206977719074</v>
+        <v>0.05962308946319889</v>
       </c>
       <c r="O6" t="n">
-        <v>0.008635377753909284</v>
+        <v>0.009371484405145606</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01049234589067743</v>
+        <v>0.05650513262235603</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02550397963638212</v>
+        <v>0.0007799956686135031</v>
       </c>
       <c r="R6" t="n">
-        <v>0.04913555829322597</v>
+        <v>0.06791076319807136</v>
       </c>
       <c r="S6" t="n">
-        <v>0.008140749844040595</v>
+        <v>0.01284077025740783</v>
       </c>
       <c r="T6" t="n">
-        <v>0.06305751698250982</v>
+        <v>0.06207293325701899</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02947994078296699</v>
+        <v>0.003862363704493221</v>
       </c>
       <c r="V6" t="n">
-        <v>0.05953615588214597</v>
+        <v>0.01999283988783063</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0438445445312186</v>
+        <v>0.06540303865133558</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01665272857677379</v>
+        <v>0.04887427941341025</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.07596462347024797</v>
+        <v>0.04987445854938212</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.07418127189591076</v>
+        <v>0.01405953978545564</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.07003844834678619</v>
+        <v>0.06125729070549348</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.06922561974902088</v>
+        <v>0.0571879293807661</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.04153582798381874</v>
+        <v>0.03900924251225591</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.03407148409895655</v>
+        <v>0.006940943870606443</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.0686853956655292</v>
+        <v>0.02194146952837986</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.01548471154310322</v>
+        <v>0.05458169453502144</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.06757259374352123</v>
+        <v>0.05228120007362073</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.1506379886389428</v>
+        <v>0.208212554431696</v>
       </c>
     </row>
     <row r="7">
@@ -1170,94 +1170,94 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.4186709732945531</v>
+        <v>0.3581912943667181</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07842980899378989</v>
+        <v>0.07607779913896241</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03875820458559171</v>
+        <v>0.05631710850569981</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01745677907496111</v>
+        <v>0.008963093752953472</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08703989526856955</v>
+        <v>0.06497921402612933</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01472806271949711</v>
+        <v>0.02266410171545013</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03293861535272798</v>
+        <v>0.00477150065428522</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04043587708289489</v>
+        <v>0.06750242115468029</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00736097059530013</v>
+        <v>0.0342112005333325</v>
       </c>
       <c r="N7" t="n">
-        <v>0.06132597891449685</v>
+        <v>0.07426107418379597</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0456291369707947</v>
+        <v>0.05662219120829598</v>
       </c>
       <c r="P7" t="n">
-        <v>0.07440660178397501</v>
+        <v>0.05304044230833906</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07728930400682091</v>
+        <v>0.02761404112111697</v>
       </c>
       <c r="R7" t="n">
-        <v>0.007189398875387772</v>
+        <v>0.07924715957710662</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0814412248339368</v>
+        <v>0.02764028737809839</v>
       </c>
       <c r="T7" t="n">
-        <v>0.07905243408519974</v>
+        <v>0.04663650507368316</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002149719366404801</v>
+        <v>0.02336576615287404</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02081448930285215</v>
+        <v>0.02364994038905503</v>
       </c>
       <c r="W7" t="n">
-        <v>0.07838948730097187</v>
+        <v>0.008778870843831391</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02249717423332864</v>
+        <v>0.06333013566302077</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01873675717492619</v>
+        <v>0.005001622608464686</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.009972016803392216</v>
+        <v>0.009748954923734982</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01274942133189078</v>
+        <v>0.01174068918468548</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.007536974978651299</v>
+        <v>0.002564392542250681</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.009329629982556667</v>
+        <v>0.001580998290730371</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.002824740698006577</v>
+        <v>0.01209257223883588</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.02898373505483082</v>
+        <v>0.03566192673937118</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.02588502474340739</v>
+        <v>0.02448407391224664</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.01664853588483659</v>
+        <v>0.07745191617896971</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.2674828195376825</v>
+        <v>0.2709083859036889</v>
       </c>
     </row>
     <row r="8">
@@ -1280,94 +1280,94 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2837627105546541</v>
+        <v>0.2771553800864692</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01289057286821461</v>
+        <v>0.01243715086468634</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02343810639487172</v>
+        <v>0.02339511613935107</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02009204067197191</v>
+        <v>0.004724859762729012</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05023565083825661</v>
+        <v>0.0547657456904967</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0233890476146781</v>
+        <v>0.01300747882797979</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02752190916344796</v>
+        <v>0.0471103730991113</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0311817405414499</v>
+        <v>0.03141979249647209</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03483101941432014</v>
+        <v>0.03274103875157371</v>
       </c>
       <c r="N8" t="n">
-        <v>0.07265615127496308</v>
+        <v>0.0563965019813746</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02630495739773965</v>
+        <v>0.005051822599107433</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03137755737334841</v>
+        <v>0.04696645041278903</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01470011996315953</v>
+        <v>0.04659950178400711</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0766073195080869</v>
+        <v>0.05310670036268302</v>
       </c>
       <c r="S8" t="n">
-        <v>0.06505249065717207</v>
+        <v>0.0695291244311123</v>
       </c>
       <c r="T8" t="n">
-        <v>0.07178333787407916</v>
+        <v>0.06622177684741153</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01104145996801743</v>
+        <v>0.003754726011481383</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0299197004581567</v>
+        <v>0.04959135947503675</v>
       </c>
       <c r="W8" t="n">
-        <v>0.07303447039087327</v>
+        <v>0.04844509156139791</v>
       </c>
       <c r="X8" t="n">
-        <v>0.00358444055509112</v>
+        <v>0.001965274800878149</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.02726096857899167</v>
+        <v>0.04771743047306495</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.05345005086515921</v>
+        <v>0.05770307757602444</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.01125203662590776</v>
+        <v>0.0484940012837568</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0285099804110949</v>
+        <v>0.03844697384262993</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0008515776118671046</v>
+        <v>0.008462555490673816</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.002054775851381835</v>
+        <v>0.001642348923524975</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.06916389414459508</v>
+        <v>0.05862446718983758</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.05333889056589836</v>
+        <v>0.007652002236271664</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.05447573241720581</v>
+        <v>0.06402725708453672</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.09313367176823975</v>
+        <v>0.1113414873493352</v>
       </c>
     </row>
     <row r="9">
@@ -1390,94 +1390,94 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.3540912991783097</v>
+        <v>0.3517886528574676</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07514521056249793</v>
+        <v>0.07142137835166912</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04000146582700043</v>
+        <v>0.003676527234085531</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08365270222229877</v>
+        <v>0.07649109415499118</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03151051796529632</v>
+        <v>0.07324611342576003</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05431526937557158</v>
+        <v>0.0153701152244834</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05039443177613137</v>
+        <v>0.05252306657814609</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05981768409703869</v>
+        <v>0.0796094695799214</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01709814049369012</v>
+        <v>0.0121488522380974</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0212640896960346</v>
+        <v>0.07938210564319097</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04762751833762251</v>
+        <v>0.03386896129196742</v>
       </c>
       <c r="P9" t="n">
-        <v>0.03338579699222155</v>
+        <v>0.05015074200035603</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0005410348642560971</v>
+        <v>0.0764225903203509</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02487489983717638</v>
+        <v>0.001784506178189619</v>
       </c>
       <c r="S9" t="n">
-        <v>0.06498594823311286</v>
+        <v>0.01493852936743135</v>
       </c>
       <c r="T9" t="n">
-        <v>0.003846899225311012</v>
+        <v>0.02822109340387416</v>
       </c>
       <c r="U9" t="n">
-        <v>0.007627438623290227</v>
+        <v>0.01200098173118942</v>
       </c>
       <c r="V9" t="n">
-        <v>0.07844564676516218</v>
+        <v>0.04165059533967423</v>
       </c>
       <c r="W9" t="n">
-        <v>0.002670128372806543</v>
+        <v>0.006447571409321007</v>
       </c>
       <c r="X9" t="n">
-        <v>0.003137334354524528</v>
+        <v>0.009605836040519105</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.04218904865508643</v>
+        <v>0.04557974349070724</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.05975306610324099</v>
+        <v>0.07592483924842403</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.01972661709763186</v>
+        <v>0.06542742502971445</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.01015270016678595</v>
+        <v>0.002959111622585609</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.06670558574683334</v>
+        <v>0.0009804789521063242</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.01490118046292714</v>
+        <v>0.02005267700819326</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.01912090295962565</v>
+        <v>0.006984364745114087</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.04733447753132226</v>
+        <v>0.006159400029726174</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.01977426365550272</v>
+        <v>0.03697183036021047</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.1181778538739618</v>
+        <v>0.1282515833933437</v>
       </c>
     </row>
     <row r="10">
@@ -1500,94 +1500,94 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2405883333009048</v>
+        <v>0.2540472390043321</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03962721198604809</v>
+        <v>0.03941242068754439</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01587790424029137</v>
+        <v>0.05143272062797465</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04631317869154369</v>
+        <v>0.02287239885168775</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02088215848316777</v>
+        <v>0.02325575390682716</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001095674411573422</v>
+        <v>0.003703025363942689</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001783672305294738</v>
+        <v>0.001263887324086816</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05954775707619387</v>
+        <v>0.06274879139330169</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05094497776103386</v>
+        <v>0.05134208955574617</v>
       </c>
       <c r="N10" t="n">
-        <v>0.06083846776879789</v>
+        <v>0.02020491748699046</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002777826465258604</v>
+        <v>0.02161381708660856</v>
       </c>
       <c r="P10" t="n">
-        <v>0.06870675620580269</v>
+        <v>0.01250406080859476</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.05369302051714292</v>
+        <v>0.07752634370283856</v>
       </c>
       <c r="R10" t="n">
-        <v>0.003773317138570551</v>
+        <v>0.07599082564385573</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0407237440913549</v>
+        <v>0.0353073160172904</v>
       </c>
       <c r="T10" t="n">
-        <v>0.02452695053014772</v>
+        <v>0.001345074876120418</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006473528583231219</v>
+        <v>0.02994830673105831</v>
       </c>
       <c r="V10" t="n">
-        <v>0.008816997011992029</v>
+        <v>0.01439924104333515</v>
       </c>
       <c r="W10" t="n">
-        <v>0.02942617136685405</v>
+        <v>0.006680002662063141</v>
       </c>
       <c r="X10" t="n">
-        <v>0.00897824369498002</v>
+        <v>0.03439487041637353</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.06599514791102139</v>
+        <v>0.01291913365920805</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.04345743570010824</v>
+        <v>0.06023976712700468</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.0845765934754701</v>
+        <v>0.06175032151973736</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.07402326157882737</v>
+        <v>0.04826350955821959</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.06403446816637583</v>
+        <v>0.08135934596459191</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.04093887928621419</v>
+        <v>0.02919675818786815</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.05579639963296775</v>
+        <v>0.04130035691759549</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0009031082238870152</v>
+        <v>0.03278146463259462</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.02546714769584876</v>
+        <v>0.04624347824693972</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.07538971594896358</v>
+        <v>0.04269980056232787</v>
       </c>
     </row>
     <row r="11">
@@ -1610,94 +1610,94 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.8053108661049743</v>
+        <v>0.8058338787602009</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08172135273574353</v>
+        <v>0.02960879874589945</v>
       </c>
       <c r="G11" t="n">
-        <v>0.004318270736378365</v>
+        <v>0.02855113964192127</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0352727943626877</v>
+        <v>0.02945654939556862</v>
       </c>
       <c r="I11" t="n">
-        <v>0.005154088982064899</v>
+        <v>0.01344935960220369</v>
       </c>
       <c r="J11" t="n">
-        <v>0.003007035426023708</v>
+        <v>0.001737285639311793</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07405843703045198</v>
+        <v>0.07325731115546029</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0008022367343772836</v>
+        <v>0.01645867998433765</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0787035561207572</v>
+        <v>0.03080229124445138</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01376971898444119</v>
+        <v>0.02261032824822102</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03120572259207499</v>
+        <v>0.05143800060259123</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0415318449196654</v>
+        <v>0.07185948295397732</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.05517414714841926</v>
+        <v>0.06594388402970922</v>
       </c>
       <c r="R11" t="n">
-        <v>0.009699543583360214</v>
+        <v>0.07101207749789019</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02302403742496137</v>
+        <v>0.05118287122638406</v>
       </c>
       <c r="T11" t="n">
-        <v>0.06636414157968887</v>
+        <v>0.02144820731493825</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05563113040069061</v>
+        <v>0.007675740879992543</v>
       </c>
       <c r="V11" t="n">
-        <v>0.001677022128490379</v>
+        <v>0.01012847006684478</v>
       </c>
       <c r="W11" t="n">
-        <v>0.05200442621952055</v>
+        <v>0.02268631792688262</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01382534311448549</v>
+        <v>0.04455797524231696</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.06451494457825316</v>
+        <v>0.07371459055208907</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.08347755094645212</v>
+        <v>0.01040712374347398</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.0105907569303427</v>
+        <v>0.04462642725172897</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.007574232851206559</v>
+        <v>0.01741907169350082</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.04805872586264615</v>
+        <v>0.04752569080058382</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.06009471781238435</v>
+        <v>0.05216589709498775</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.001688662340122512</v>
+        <v>0.03759563418161179</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.05807727410417764</v>
+        <v>0.05210051190000935</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.01897828435013173</v>
+        <v>0.0005802813831120271</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.01532005323555266</v>
+        <v>0.02188060448003902</v>
       </c>
     </row>
     <row r="12">
@@ -1720,94 +1720,94 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1688332831814422</v>
+        <v>0.1663053857984825</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02422008899514433</v>
+        <v>0.02394751100024526</v>
       </c>
       <c r="G12" t="n">
-        <v>0.008011459327036027</v>
+        <v>0.05764665188078867</v>
       </c>
       <c r="H12" t="n">
-        <v>0.007779792696914051</v>
+        <v>0.01111758276710499</v>
       </c>
       <c r="I12" t="n">
-        <v>0.003366875794957387</v>
+        <v>0.04343018200654495</v>
       </c>
       <c r="J12" t="n">
-        <v>0.04578157252103546</v>
+        <v>0.004827514197632901</v>
       </c>
       <c r="K12" t="n">
-        <v>0.005831948133548859</v>
+        <v>0.003839560550367805</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06676964242517647</v>
+        <v>0.0523013656180093</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06783575554079865</v>
+        <v>0.0392223512850781</v>
       </c>
       <c r="N12" t="n">
-        <v>0.05039281926017351</v>
+        <v>0.004311728351533432</v>
       </c>
       <c r="O12" t="n">
-        <v>0.03523080390851809</v>
+        <v>0.02575218633304879</v>
       </c>
       <c r="P12" t="n">
-        <v>0.06297344211462937</v>
+        <v>0.02683181624313041</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01478888108256907</v>
+        <v>0.06949182831985506</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01653810772737732</v>
+        <v>0.0350717001372879</v>
       </c>
       <c r="S12" t="n">
-        <v>0.05914841076031798</v>
+        <v>0.06696719390367198</v>
       </c>
       <c r="T12" t="n">
-        <v>0.05974735605770741</v>
+        <v>0.05988564967822464</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04018030439133056</v>
+        <v>0.01556742736477563</v>
       </c>
       <c r="V12" t="n">
-        <v>0.05253069633129907</v>
+        <v>0.05611713962464861</v>
       </c>
       <c r="W12" t="n">
-        <v>0.005582124373787677</v>
+        <v>0.01083121312731132</v>
       </c>
       <c r="X12" t="n">
-        <v>0.03756874909701674</v>
+        <v>0.03341831004718587</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.05422029960020484</v>
+        <v>0.02850977942264137</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.06038276786135125</v>
+        <v>0.04514419860059447</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.05988429309841274</v>
+        <v>0.005480613171798421</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.02993360286799182</v>
+        <v>0.06997657398377724</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.04617728057090231</v>
+        <v>0.07003665017858648</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.01159058660324611</v>
+        <v>0.04121134731102465</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.03559518908967023</v>
+        <v>0.04485065420227926</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.03700349399765217</v>
+        <v>0.05217766582072915</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.0009336557712304571</v>
+        <v>0.00203360487212342</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.09550344519347322</v>
+        <v>0.08758475106929371</v>
       </c>
     </row>
     <row r="13">
@@ -1830,94 +1830,94 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1.492935310435693</v>
+        <v>1.359990124669412</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05545658839805455</v>
+        <v>0.02266836064547644</v>
       </c>
       <c r="G13" t="n">
-        <v>0.005184230758084175</v>
+        <v>0.04453190283251908</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00658905435626848</v>
+        <v>0.03005535488931839</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03897832316198494</v>
+        <v>0.03086391146504085</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01338131103782184</v>
+        <v>0.07187489028202333</v>
       </c>
       <c r="K13" t="n">
-        <v>0.005568633303800154</v>
+        <v>0.03177059238648023</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0673357076906501</v>
+        <v>0.05398604017909955</v>
       </c>
       <c r="M13" t="n">
-        <v>0.005874347184259955</v>
+        <v>0.06865095238334626</v>
       </c>
       <c r="N13" t="n">
-        <v>0.004041405841701216</v>
+        <v>0.001542804549802393</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02485449200900076</v>
+        <v>0.004376788304089086</v>
       </c>
       <c r="P13" t="n">
-        <v>0.008911276017273017</v>
+        <v>0.0536814574701522</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.003694683266725055</v>
+        <v>0.02733261547377673</v>
       </c>
       <c r="R13" t="n">
-        <v>0.07668001729735985</v>
+        <v>0.006847305718297699</v>
       </c>
       <c r="S13" t="n">
-        <v>0.07837964118839101</v>
+        <v>0.04711659720011963</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0753355900852765</v>
+        <v>0.01835449569138952</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05030320494236235</v>
+        <v>0.004042268333080926</v>
       </c>
       <c r="V13" t="n">
-        <v>0.03708075110096643</v>
+        <v>0.0287569771482585</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0006205922152375852</v>
+        <v>0.002862623119185338</v>
       </c>
       <c r="X13" t="n">
-        <v>7.671168737744884e-05</v>
+        <v>0.01846429348571175</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.008904161338442294</v>
+        <v>0.03572732908165031</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.07412288449033883</v>
+        <v>0.0353149115667515</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.04992905494127484</v>
+        <v>0.08010538213191941</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0362892043729552</v>
+        <v>0.002987582043731463</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.07174944019922168</v>
+        <v>0.03799647504239546</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.06254374858012358</v>
+        <v>0.05767718717481763</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.03392979730263571</v>
+        <v>0.04661726446745146</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.01991329461397884</v>
+        <v>0.05905852047566162</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.08427185261843376</v>
+        <v>0.07673511645845313</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.07833356540631918</v>
+        <v>0.09943092346378567</v>
       </c>
     </row>
     <row r="14">
@@ -1940,94 +1940,94 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.1525564368943071</v>
+        <v>0.1491422315254397</v>
       </c>
       <c r="F14" t="n">
-        <v>0.004706082040793827</v>
+        <v>0.05537718438293881</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02285514591080137</v>
+        <v>0.003034500308926236</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07595371439511023</v>
+        <v>0.06956740111224763</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07712061136897964</v>
+        <v>0.01874081847688793</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05535750135581202</v>
+        <v>0.05313043072310047</v>
       </c>
       <c r="K14" t="n">
-        <v>0.005988023437617939</v>
+        <v>0.004079538717106321</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0289730534409811</v>
+        <v>0.0313678539453271</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03737069315018702</v>
+        <v>0.04281917221016291</v>
       </c>
       <c r="N14" t="n">
-        <v>0.002341637548115444</v>
+        <v>0.0214809984037316</v>
       </c>
       <c r="O14" t="n">
-        <v>0.04892593675830617</v>
+        <v>0.06472080343795304</v>
       </c>
       <c r="P14" t="n">
-        <v>5.016368713280097e-05</v>
+        <v>0.002138193585604478</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.00428727459524916</v>
+        <v>0.003728303070522253</v>
       </c>
       <c r="R14" t="n">
-        <v>0.05369452502224827</v>
+        <v>0.06456953997102083</v>
       </c>
       <c r="S14" t="n">
-        <v>0.03334765856845583</v>
+        <v>0.04074845587302539</v>
       </c>
       <c r="T14" t="n">
-        <v>0.05967821631661645</v>
+        <v>0.01601138192071823</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01140200534113239</v>
+        <v>0.0248728015287186</v>
       </c>
       <c r="V14" t="n">
-        <v>0.05945706345332978</v>
+        <v>0.06542877201528143</v>
       </c>
       <c r="W14" t="n">
-        <v>0.009709952456752305</v>
+        <v>0.01863134715726843</v>
       </c>
       <c r="X14" t="n">
-        <v>0.01947960602953859</v>
+        <v>0.04421150239280352</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.05865562114136224</v>
+        <v>0.07244643137888662</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.03515556619208322</v>
+        <v>0.01060299626646702</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.02223816870121231</v>
+        <v>0.01923297087037448</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.07461971594524679</v>
+        <v>0.07413411861904137</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.0008546978090298753</v>
+        <v>0.01591024109377115</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.06940467948378048</v>
+        <v>0.05055137414809329</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.01336206690577774</v>
+        <v>0.04684204899699716</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.06644868106770266</v>
+        <v>0.0133371135549611</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.04856193787664433</v>
+        <v>0.05228370583806276</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.2441289499775915</v>
+        <v>0.1948511117687122</v>
       </c>
     </row>
     <row r="15">
@@ -2050,94 +2050,94 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.1893798113589352</v>
+        <v>0.2443533086035579</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06324476989201319</v>
+        <v>0.0697708310857619</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05234601513057763</v>
+        <v>0.06720222571054715</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06450449790489889</v>
+        <v>0.03579846521256065</v>
       </c>
       <c r="I15" t="n">
-        <v>0.034532829775632</v>
+        <v>0.05850529247390627</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0317496041956773</v>
+        <v>0.009351638184892803</v>
       </c>
       <c r="K15" t="n">
-        <v>0.03335269590400999</v>
+        <v>0.005839429730869593</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04805262637830335</v>
+        <v>0.0153351531702261</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02652547729452623</v>
+        <v>0.002389280322203778</v>
       </c>
       <c r="N15" t="n">
-        <v>0.05677447808508898</v>
+        <v>0.02028372883988105</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02726505544513803</v>
+        <v>0.05332642250288512</v>
       </c>
       <c r="P15" t="n">
-        <v>8.568728875776163e-06</v>
+        <v>2.177161062801836e-05</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01231614441048622</v>
+        <v>0.02677909062058032</v>
       </c>
       <c r="R15" t="n">
-        <v>0.02593304564688665</v>
+        <v>0.05037334717241274</v>
       </c>
       <c r="S15" t="n">
-        <v>0.05839267317768184</v>
+        <v>0.01802109117501992</v>
       </c>
       <c r="T15" t="n">
-        <v>0.01481388324982486</v>
+        <v>0.0618838684269418</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01522937326569111</v>
+        <v>0.05755525895083301</v>
       </c>
       <c r="V15" t="n">
-        <v>0.03833996796326589</v>
+        <v>0.05495630877594841</v>
       </c>
       <c r="W15" t="n">
-        <v>0.009580232512520258</v>
+        <v>0.004477007408523371</v>
       </c>
       <c r="X15" t="n">
-        <v>0.03387328392005646</v>
+        <v>0.006729771817894483</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.05412949879699606</v>
+        <v>0.05839516475214512</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.03916130266520151</v>
+        <v>0.03615990053533193</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.07158386304792339</v>
+        <v>0.05476773276550159</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.04719796197121727</v>
+        <v>0.03822447387200259</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.002135934854578428</v>
+        <v>0.0548750582170123</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.03356139207321266</v>
+        <v>0.02057475670935962</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.04062051906422012</v>
+        <v>0.0685018349141064</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.01826596749194596</v>
+        <v>0.03066674551924792</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.04650833715355</v>
+        <v>0.01923434952277622</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.2370137460380193</v>
+        <v>0.2359293311603966</v>
       </c>
     </row>
     <row r="16">
@@ -2160,94 +2160,94 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.3155522652747422</v>
+        <v>0.24360790378261</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03756362702348917</v>
+        <v>0.04649588714618378</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07488677256518407</v>
+        <v>0.02069108560512418</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07761684265906216</v>
+        <v>0.04695014551207558</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03032509859839411</v>
+        <v>0.03924281822583563</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01315332841590464</v>
+        <v>0.03055123843289805</v>
       </c>
       <c r="K16" t="n">
-        <v>0.04997934738431741</v>
+        <v>0.02381925993169948</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04356988375631787</v>
+        <v>0.06684699341498769</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002504743619890104</v>
+        <v>0.06116244525981496</v>
       </c>
       <c r="N16" t="n">
-        <v>0.06361721887242526</v>
+        <v>0.03953662522996453</v>
       </c>
       <c r="O16" t="n">
-        <v>0.05351756912770887</v>
+        <v>0.00780287854631904</v>
       </c>
       <c r="P16" t="n">
-        <v>0.01680773295342436</v>
+        <v>0.03288670227405478</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02051426766295629</v>
+        <v>0.05803692454750187</v>
       </c>
       <c r="R16" t="n">
-        <v>0.05163121126231883</v>
+        <v>0.04501833769363617</v>
       </c>
       <c r="S16" t="n">
-        <v>0.07915553053159398</v>
+        <v>0.03671901700351099</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02788130363872873</v>
+        <v>0.0009173077121364802</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02118015197989865</v>
+        <v>0.04792210366315144</v>
       </c>
       <c r="V16" t="n">
-        <v>0.03123620136439469</v>
+        <v>0.003726307178360938</v>
       </c>
       <c r="W16" t="n">
-        <v>0.07116274397065728</v>
+        <v>0.07145576970755195</v>
       </c>
       <c r="X16" t="n">
-        <v>0.008979055938255981</v>
+        <v>0.001033290256811768</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.03468728774721139</v>
+        <v>0.02160324707939347</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.03184905691705682</v>
+        <v>0.07594758274818776</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.004849814921063907</v>
+        <v>0.01182804138508443</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.005239281225197475</v>
+        <v>0.005844813041854973</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.01706996953755822</v>
+        <v>0.0605859460272295</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.004904186263316366</v>
+        <v>0.0007042712146037739</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.06939968489565564</v>
+        <v>0.0560730714838589</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.027228530763411</v>
+        <v>0.06999971645633324</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.02948955640460683</v>
+        <v>0.01659817322183447</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.1275292228130281</v>
+        <v>0.1179941084073845</v>
       </c>
     </row>
     <row r="17">
@@ -2270,94 +2270,94 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1.405160391016902</v>
+        <v>1.404433845704803</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01235751423041262</v>
+        <v>0.01840915096729095</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07088577260976943</v>
+        <v>0.00306819142969875</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05710388226933193</v>
+        <v>0.06920046297511029</v>
       </c>
       <c r="I17" t="n">
-        <v>0.005166037571127307</v>
+        <v>0.02911047062389459</v>
       </c>
       <c r="J17" t="n">
-        <v>0.04969360584865831</v>
+        <v>0.01735778608987339</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02386393570796073</v>
+        <v>0.02065544014118016</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05820698292328374</v>
+        <v>0.06732218202507309</v>
       </c>
       <c r="M17" t="n">
-        <v>0.03020166431716188</v>
+        <v>0.05394572660856177</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01940669566651619</v>
+        <v>0.06699246946736824</v>
       </c>
       <c r="O17" t="n">
-        <v>0.05616580090041687</v>
+        <v>0.0214487489881972</v>
       </c>
       <c r="P17" t="n">
-        <v>0.01209672166317972</v>
+        <v>0.05211709955365197</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.07223983181045188</v>
+        <v>0.06064710020608993</v>
       </c>
       <c r="R17" t="n">
-        <v>0.06692564688636347</v>
+        <v>0.002247636455941826</v>
       </c>
       <c r="S17" t="n">
-        <v>0.04415297357877321</v>
+        <v>0.00852524516034902</v>
       </c>
       <c r="T17" t="n">
-        <v>0.001341245225245814</v>
+        <v>0.01548259292775355</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04189143496811387</v>
+        <v>0.0300959477672199</v>
       </c>
       <c r="V17" t="n">
-        <v>0.03888853770185015</v>
+        <v>0.0197654915001438</v>
       </c>
       <c r="W17" t="n">
-        <v>0.05445369982395159</v>
+        <v>0.06831435710217783</v>
       </c>
       <c r="X17" t="n">
-        <v>0.06739247252588774</v>
+        <v>0.06742786919981904</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.01625502971772039</v>
+        <v>0.0688131711163079</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.01989413234227839</v>
+        <v>0.02322761639589235</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.03507271219320887</v>
+        <v>0.03694419231273914</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.02533747672238156</v>
+        <v>0.01988762016204649</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.0200569237903403</v>
+        <v>0.05770524344727937</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.001894062525698334</v>
+        <v>0.005162914446160107</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.0317409997305648</v>
+        <v>0.04263535474809151</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.06534994270819093</v>
+        <v>0.04735940553468385</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.001964264041160028</v>
+        <v>0.006130512647403891</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.1208905977387864</v>
+        <v>0.1218323568263161</v>
       </c>
     </row>
     <row r="18">
@@ -2380,94 +2380,94 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.5236738131086721</v>
+        <v>0.5209724573707047</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04210991550355146</v>
+        <v>0.06707364611107366</v>
       </c>
       <c r="G18" t="n">
-        <v>0.008083025748930904</v>
+        <v>0.004334632091033378</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05034811779167721</v>
+        <v>0.0710676473799183</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04298261967601325</v>
+        <v>0.06314562604713619</v>
       </c>
       <c r="J18" t="n">
-        <v>0.06066460324968329</v>
+        <v>0.038678543482046</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05873907354280764</v>
+        <v>0.01221803472867992</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03626940782087534</v>
+        <v>0.03537371790645189</v>
       </c>
       <c r="M18" t="n">
-        <v>0.05309694386025144</v>
+        <v>0.02604385236779592</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01658767789705385</v>
+        <v>0.07503414854119111</v>
       </c>
       <c r="O18" t="n">
-        <v>0.054590354769488</v>
+        <v>0.08084446106210755</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0199080878713158</v>
+        <v>0.004093124113562779</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.02114375416039542</v>
+        <v>0.03183892499881787</v>
       </c>
       <c r="R18" t="n">
-        <v>0.05990147536043425</v>
+        <v>0.04402408760864219</v>
       </c>
       <c r="S18" t="n">
-        <v>0.04503401953096028</v>
+        <v>0.01680053709963257</v>
       </c>
       <c r="T18" t="n">
-        <v>0.002576494636478788</v>
+        <v>0.009150356760134534</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03643567988499729</v>
+        <v>0.005798740568310636</v>
       </c>
       <c r="V18" t="n">
-        <v>0.05069371601993755</v>
+        <v>0.03930625542395265</v>
       </c>
       <c r="W18" t="n">
-        <v>0.02618637288993478</v>
+        <v>0.07630525999489178</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0009927847084449403</v>
+        <v>0.02893932941016181</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0378928274429581</v>
+        <v>0.07295982027172453</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.03534625703760345</v>
+        <v>0.0529683668391103</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.02265006260997911</v>
+        <v>0.008919074710354318</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.03250906264414762</v>
+        <v>0.03080381683330487</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.02861283412304306</v>
+        <v>0.01395330689792506</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.02935781833399803</v>
+        <v>0.02809554927304418</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.04238974979240306</v>
+        <v>0.0223561457509545</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.03889961550772737</v>
+        <v>0.02661328161845595</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.04599764758490864</v>
+        <v>0.0132597121095855</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0.02596234586160583</v>
+        <v>-0.01299707087588766</v>
       </c>
     </row>
     <row r="19">
@@ -2490,94 +2490,94 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.323885022698196</v>
+        <v>1.416011532172353</v>
       </c>
       <c r="F19" t="n">
-        <v>0.008766867998468077</v>
+        <v>0.04242783227813372</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05012748428384622</v>
+        <v>0.04892847367159057</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01995635360774335</v>
+        <v>0.03731362688126663</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02827293151710969</v>
+        <v>0.03356609854787865</v>
       </c>
       <c r="J19" t="n">
-        <v>0.05389467362751926</v>
+        <v>0.005334937214206167</v>
       </c>
       <c r="K19" t="n">
-        <v>0.04275075983363705</v>
+        <v>0.03610946127103551</v>
       </c>
       <c r="L19" t="n">
-        <v>8.738847018301288e-07</v>
+        <v>4.396489175769797e-06</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0298132950602214</v>
+        <v>0.02391117933611835</v>
       </c>
       <c r="N19" t="n">
-        <v>0.05377958628780748</v>
+        <v>0.0382567015174606</v>
       </c>
       <c r="O19" t="n">
-        <v>0.04930579561111668</v>
+        <v>0.05242687435757946</v>
       </c>
       <c r="P19" t="n">
-        <v>0.05813051535821348</v>
+        <v>0.06377228846156141</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.05859910056449445</v>
+        <v>0.04037869421837861</v>
       </c>
       <c r="R19" t="n">
-        <v>0.05018220201592757</v>
+        <v>0.05984113308067291</v>
       </c>
       <c r="S19" t="n">
-        <v>0.06215019594226707</v>
+        <v>0.02299949818506019</v>
       </c>
       <c r="T19" t="n">
-        <v>0.01217936295041184</v>
+        <v>0.02006503352135301</v>
       </c>
       <c r="U19" t="n">
-        <v>0.005960454715237102</v>
+        <v>0.01694763730156969</v>
       </c>
       <c r="V19" t="n">
-        <v>0.01594669782265885</v>
+        <v>0.06482467552602893</v>
       </c>
       <c r="W19" t="n">
-        <v>0.0209706625543256</v>
+        <v>0.03015942833685419</v>
       </c>
       <c r="X19" t="n">
-        <v>0.04801697600339298</v>
+        <v>0.05237090095535445</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.05288326071110549</v>
+        <v>0.00114731946219114</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.0390472860994057</v>
+        <v>0.05954059050473956</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.001210672338960158</v>
+        <v>0.06630369943556001</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.05477648615052837</v>
+        <v>0.005173364964091287</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.05193455283942514</v>
+        <v>0.04718658845083694</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.02977916758513722</v>
+        <v>0.01353319041465316</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.05746731682729908</v>
+        <v>0.01482449093810939</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.005618373024886906</v>
+        <v>0.05628637695956246</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.038478094784152</v>
+        <v>0.04636550771897732</v>
       </c>
       <c r="AH19" t="n">
-        <v>-0.01441526558933307</v>
+        <v>0.02929939039742637</v>
       </c>
     </row>
     <row r="20">
@@ -2600,94 +2600,94 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1241238439038277</v>
+        <v>0.1234289430784456</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06749629616843537</v>
+        <v>0.06526390980529781</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05968446471573113</v>
+        <v>0.05804231400741688</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06574963113300034</v>
+        <v>0.04633635404345906</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02923381660839349</v>
+        <v>0.0295050053217628</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02246573889446987</v>
+        <v>0.05315170448821775</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001136386942849066</v>
+        <v>0.006284422886030417</v>
       </c>
       <c r="L20" t="n">
-        <v>0.06308315346884227</v>
+        <v>0.0496804353304055</v>
       </c>
       <c r="M20" t="n">
-        <v>0.05415392707803118</v>
+        <v>0.0301515862810984</v>
       </c>
       <c r="N20" t="n">
-        <v>0.007089623828026678</v>
+        <v>0.01350754352882721</v>
       </c>
       <c r="O20" t="n">
-        <v>0.07550521143056051</v>
+        <v>0.0180669093815276</v>
       </c>
       <c r="P20" t="n">
-        <v>0.01869089666953841</v>
+        <v>0.02754164649259747</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.04684180092152589</v>
+        <v>0.05899881402045643</v>
       </c>
       <c r="R20" t="n">
-        <v>0.01150629944664656</v>
+        <v>0.063706085767887</v>
       </c>
       <c r="S20" t="n">
-        <v>0.05641325954923039</v>
+        <v>0.05829446955181437</v>
       </c>
       <c r="T20" t="n">
-        <v>0.03209397708063617</v>
+        <v>0.02336956797071409</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04108725554856344</v>
+        <v>0.06208812407046853</v>
       </c>
       <c r="V20" t="n">
-        <v>0.02005543528855322</v>
+        <v>0.01936199425310238</v>
       </c>
       <c r="W20" t="n">
-        <v>0.00122407759874598</v>
+        <v>0.008896846995906166</v>
       </c>
       <c r="X20" t="n">
-        <v>0.01954915010705136</v>
+        <v>0.001668896596721733</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.05739374780366538</v>
+        <v>0.03922077734093331</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.03107327081804981</v>
+        <v>0.005620164035455421</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.004447805638103769</v>
+        <v>0.0008326002702119637</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.07782149133636064</v>
+        <v>0.0381290309965443</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.01595571398410393</v>
+        <v>0.02970503816329175</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.03755059182118843</v>
+        <v>0.06040168646909088</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.02809614625953595</v>
+        <v>0.05554179582430249</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.03046885386881345</v>
+        <v>0.02238958247710041</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.02413197599134726</v>
+        <v>0.05424269362935785</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.1325112120068851</v>
+        <v>0.1371809647756392</v>
       </c>
     </row>
     <row r="21">
@@ -2710,94 +2710,94 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.5621465653874008</v>
+        <v>0.4788983144725744</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02821485633241727</v>
+        <v>0.07758023099228017</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04074442707680134</v>
+        <v>0.03669270175210526</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02573957204822985</v>
+        <v>0.02385144620061122</v>
       </c>
       <c r="I21" t="n">
-        <v>0.07348982450129236</v>
+        <v>0.01579726521368319</v>
       </c>
       <c r="J21" t="n">
-        <v>0.02081892116725265</v>
+        <v>0.03176438579112794</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01622944029419655</v>
+        <v>0.008845344321166701</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02592748260648382</v>
+        <v>0.02747598876266117</v>
       </c>
       <c r="M21" t="n">
-        <v>0.08109756826396315</v>
+        <v>0.04699778936763171</v>
       </c>
       <c r="N21" t="n">
-        <v>8.403235465391904e-05</v>
+        <v>0.005095737034312989</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0425232107013838</v>
+        <v>0.01234703802340154</v>
       </c>
       <c r="P21" t="n">
-        <v>0.02732946587078727</v>
+        <v>0.005261058386330247</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.08773671544061284</v>
+        <v>0.01042008299754004</v>
       </c>
       <c r="R21" t="n">
-        <v>0.02090722089804099</v>
+        <v>0.06749374746913708</v>
       </c>
       <c r="S21" t="n">
-        <v>0.0006935008324074329</v>
+        <v>0.04905283502977496</v>
       </c>
       <c r="T21" t="n">
-        <v>0.03226372378768096</v>
+        <v>0.04466420226030123</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08972758001895528</v>
+        <v>0.06268502832829256</v>
       </c>
       <c r="V21" t="n">
-        <v>0.009376845076276997</v>
+        <v>0.02852041023193374</v>
       </c>
       <c r="W21" t="n">
-        <v>0.01176895401237566</v>
+        <v>0.01124820910586644</v>
       </c>
       <c r="X21" t="n">
-        <v>0.03464935189365281</v>
+        <v>0.04829159757032715</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.02035892730032378</v>
+        <v>0.01167324295686019</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.03262834983836687</v>
+        <v>0.0385836912396415</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.08382707481823728</v>
+        <v>0.07227466741227312</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.05588121283382652</v>
+        <v>0.03737708703935846</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.007552832936541389</v>
+        <v>0.05103307383180734</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.02496890583944877</v>
+        <v>0.02167226826888315</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.01764929436736389</v>
+        <v>0.01222154026086395</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.03446017786602638</v>
+        <v>0.07020405811988092</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.05335053102240039</v>
+        <v>0.07087527203194618</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.119726033686706</v>
+        <v>0.1076300077624839</v>
       </c>
     </row>
     <row r="22">
@@ -2820,94 +2820,94 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.128955571957563</v>
+        <v>0.1256655751655959</v>
       </c>
       <c r="F22" t="n">
-        <v>0.03759942534350826</v>
+        <v>0.03505150572479446</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06762985943599004</v>
+        <v>0.05310364791128525</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02565289999608724</v>
+        <v>0.01201111946778985</v>
       </c>
       <c r="I22" t="n">
-        <v>0.06130353243076767</v>
+        <v>0.0509205195701949</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03522406031055922</v>
+        <v>0.02832327989072563</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01978229169086818</v>
+        <v>0.0272435358182332</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02309590832124389</v>
+        <v>0.0387264912797439</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0008544880092420048</v>
+        <v>0.00471602666094161</v>
       </c>
       <c r="N22" t="n">
-        <v>0.02116350356070203</v>
+        <v>0.0472468563615421</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02449785703849647</v>
+        <v>0.06197881350341782</v>
       </c>
       <c r="P22" t="n">
-        <v>0.02604698586534825</v>
+        <v>0.03812893199413896</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.03614942073141002</v>
+        <v>0.06429658113657984</v>
       </c>
       <c r="R22" t="n">
-        <v>0.06052953058113698</v>
+        <v>0.06443791047218288</v>
       </c>
       <c r="S22" t="n">
-        <v>0.005250962368830786</v>
+        <v>0.03011819601013694</v>
       </c>
       <c r="T22" t="n">
-        <v>0.05413998538258265</v>
+        <v>0.04933450486745807</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0007935629251671569</v>
+        <v>0.001790851747024204</v>
       </c>
       <c r="V22" t="n">
-        <v>0.0108517055504285</v>
+        <v>0.05398940854453777</v>
       </c>
       <c r="W22" t="n">
-        <v>0.07140825210983706</v>
+        <v>0.02084504927660187</v>
       </c>
       <c r="X22" t="n">
-        <v>0.03542199493047121</v>
+        <v>0.004769676797035123</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.05769833586060122</v>
+        <v>0.001507740301250168</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.0368672711926792</v>
+        <v>0.003352399876375439</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.06834712997661431</v>
+        <v>0.0660197863985667</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.02763665572654193</v>
+        <v>0.0554186987068807</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.07350333335758417</v>
+        <v>0.06555755929924242</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.002921832287212675</v>
+        <v>0.0001580688963072454</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.02478861382922122</v>
+        <v>0.04804988545935934</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.07751527549647724</v>
+        <v>0.007896343494873502</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.01332532569039032</v>
+        <v>0.06500661053278019</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.1900530837763575</v>
+        <v>0.1966239169325799</v>
       </c>
     </row>
     <row r="23">
@@ -2930,94 +2930,94 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.8274360634972358</v>
+        <v>0.6054059876174144</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01929360746289348</v>
+        <v>0.05611277809984762</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02341333670416069</v>
+        <v>0.04922703414629261</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03154434235273603</v>
+        <v>0.001030325323319816</v>
       </c>
       <c r="I23" t="n">
-        <v>0.07623032196650981</v>
+        <v>0.05127840840882313</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01030247471049565</v>
+        <v>0.008656402523986402</v>
       </c>
       <c r="K23" t="n">
-        <v>0.08536602032566824</v>
+        <v>0.07465663850665248</v>
       </c>
       <c r="L23" t="n">
-        <v>0.04203649899151818</v>
+        <v>0.001318521208361198</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03372079867260688</v>
+        <v>0.01996029310062617</v>
       </c>
       <c r="N23" t="n">
-        <v>0.04255992230412058</v>
+        <v>0.01955734359034359</v>
       </c>
       <c r="O23" t="n">
-        <v>0.03078909683959839</v>
+        <v>0.009129922577332647</v>
       </c>
       <c r="P23" t="n">
-        <v>0.03183472347601306</v>
+        <v>0.05472133184616242</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.05827571039851781</v>
+        <v>0.02882438373942414</v>
       </c>
       <c r="R23" t="n">
-        <v>0.03612982381101172</v>
+        <v>0.06632277657350819</v>
       </c>
       <c r="S23" t="n">
-        <v>0.0101523446858807</v>
+        <v>0.01008374173789929</v>
       </c>
       <c r="T23" t="n">
-        <v>0.00603752159822664</v>
+        <v>0.02213732982116313</v>
       </c>
       <c r="U23" t="n">
-        <v>0.08871835759197449</v>
+        <v>0.06525791759610675</v>
       </c>
       <c r="V23" t="n">
-        <v>0.01614414121681521</v>
+        <v>0.03421620083774463</v>
       </c>
       <c r="W23" t="n">
-        <v>0.07201425802942876</v>
+        <v>0.04886001919193685</v>
       </c>
       <c r="X23" t="n">
-        <v>0.04557639336673885</v>
+        <v>0.07911746711659792</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.008534517346736986</v>
+        <v>0.006987954003362011</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.01767594101894285</v>
+        <v>0.04917210169495825</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.08112655963869811</v>
+        <v>0.01275556524359946</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.002399972245949008</v>
+        <v>0.0005280008477857866</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.05293093524837741</v>
+        <v>0.06309721973487119</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.002856947952832426</v>
+        <v>0.007003149823249865</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.01765073336583278</v>
+        <v>0.03021238974477445</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.04065777757782546</v>
+        <v>0.07361091341573056</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.0160269210998898</v>
+        <v>0.0561638695455395</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.2312101214186293</v>
+        <v>0.2156192224543509</v>
       </c>
     </row>
     <row r="24">
@@ -3040,94 +3040,94 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.7437217628294127</v>
+        <v>0.5922038648490845</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01534477459828631</v>
+        <v>0.007725127710752296</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02627210882959633</v>
+        <v>0.0434440250300632</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02069709729119501</v>
+        <v>0.03980017841244374</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02409877693703675</v>
+        <v>0.0210307872366344</v>
       </c>
       <c r="J24" t="n">
-        <v>0.05316577192053926</v>
+        <v>0.06417527235153332</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02509306474157576</v>
+        <v>0.02496148751807862</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0685464114200688</v>
+        <v>0.05287582986313259</v>
       </c>
       <c r="M24" t="n">
-        <v>0.07135730513379435</v>
+        <v>0.04571884387305784</v>
       </c>
       <c r="N24" t="n">
-        <v>0.07975180466689424</v>
+        <v>0.006687881261533089</v>
       </c>
       <c r="O24" t="n">
-        <v>0.008417759722272768</v>
+        <v>0.07205667966132602</v>
       </c>
       <c r="P24" t="n">
-        <v>0.001351043884292405</v>
+        <v>0.006230511443840988</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.004380929391196764</v>
+        <v>0.006935187911933376</v>
       </c>
       <c r="R24" t="n">
-        <v>0.08355441682196318</v>
+        <v>0.07223813342303627</v>
       </c>
       <c r="S24" t="n">
-        <v>0.009324969918104411</v>
+        <v>0.006076862299006433</v>
       </c>
       <c r="T24" t="n">
-        <v>0.03642375207676685</v>
+        <v>0.03118075859612361</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02229897338909118</v>
+        <v>0.06770123607000475</v>
       </c>
       <c r="V24" t="n">
-        <v>0.04604625048762417</v>
+        <v>0.06064653332023777</v>
       </c>
       <c r="W24" t="n">
-        <v>0.02948069015583169</v>
+        <v>0.06538044349252063</v>
       </c>
       <c r="X24" t="n">
-        <v>0.07440968393455512</v>
+        <v>0.02366228078230466</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.031169659468284</v>
+        <v>0.02198652840117511</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.05006049968778159</v>
+        <v>0.08088655332899006</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.01401517634214695</v>
+        <v>0.02267994782700621</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.06635372457004213</v>
+        <v>0.01513782241941909</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.01275196161517205</v>
+        <v>0.001813670180079243</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.06463029938947466</v>
+        <v>0.06098894663277182</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.01851366966674253</v>
+        <v>0.02972974356227175</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.02280491423000056</v>
+        <v>0.03602599138865722</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.0196845097096701</v>
+        <v>0.01222273600206597</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.03033384439289195</v>
+        <v>-0.04050496729622739</v>
       </c>
     </row>
     <row r="25">
@@ -3150,94 +3150,94 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1.357867317856868</v>
+        <v>1.201577243497206</v>
       </c>
       <c r="F25" t="n">
-        <v>0.03916203648405747</v>
+        <v>0.04210514107268613</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03883567507187416</v>
+        <v>0.04720658079998227</v>
       </c>
       <c r="H25" t="n">
-        <v>0.007991620093628473</v>
+        <v>0.0009483173602343958</v>
       </c>
       <c r="I25" t="n">
-        <v>0.06292173401823134</v>
+        <v>0.0173738353644459</v>
       </c>
       <c r="J25" t="n">
-        <v>0.00278335779121337</v>
+        <v>0.05910374236073967</v>
       </c>
       <c r="K25" t="n">
-        <v>0.007839076285403262</v>
+        <v>0.02123074703132425</v>
       </c>
       <c r="L25" t="n">
-        <v>0.05981062478362282</v>
+        <v>0.03539083771636687</v>
       </c>
       <c r="M25" t="n">
-        <v>0.04545979185813405</v>
+        <v>0.05241175944920983</v>
       </c>
       <c r="N25" t="n">
-        <v>0.07543481230703097</v>
+        <v>0.06179952536278136</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01626834489077394</v>
+        <v>0.02367035702222404</v>
       </c>
       <c r="P25" t="n">
-        <v>0.003053032682348895</v>
+        <v>0.002379882121703458</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01628817817227046</v>
+        <v>0.01050556311813658</v>
       </c>
       <c r="R25" t="n">
-        <v>0.06156895459273433</v>
+        <v>0.06395187401585761</v>
       </c>
       <c r="S25" t="n">
-        <v>0.01802485584932782</v>
+        <v>0.0215764574676947</v>
       </c>
       <c r="T25" t="n">
-        <v>0.01698121331740287</v>
+        <v>0.05403390066620056</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01144346852190406</v>
+        <v>0.02329126110352253</v>
       </c>
       <c r="V25" t="n">
-        <v>0.0125167566968667</v>
+        <v>0.06866491921828315</v>
       </c>
       <c r="W25" t="n">
-        <v>0.03476262310392841</v>
+        <v>0.06368129658167984</v>
       </c>
       <c r="X25" t="n">
-        <v>0.05924647561365826</v>
+        <v>0.0236130555127288</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.0741236124042214</v>
+        <v>0.05489740348254827</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.02440398098794213</v>
+        <v>0.01042575014809861</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.07736142244179228</v>
+        <v>0.02254375743287428</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.0116380713698265</v>
+        <v>0.01570091570728239</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.003106515573827795</v>
+        <v>0.003698943317771114</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.0234273862962128</v>
+        <v>0.07010393324738523</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.04837575322184048</v>
+        <v>0.04377500876633984</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.07180651774901541</v>
+        <v>0.02032221074478746</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.07536410782090951</v>
+        <v>0.06559302380711085</v>
       </c>
       <c r="AH25" t="n">
-        <v>-0.003986895062305418</v>
+        <v>-0.02155564624548765</v>
       </c>
     </row>
     <row r="26">
@@ -3260,94 +3260,94 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1319072828543641</v>
+        <v>0.1332566085201776</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08180275737266682</v>
+        <v>0.01720556900706817</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04317670763582723</v>
+        <v>0.02018291928599925</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0100641264392088</v>
+        <v>0.004511114728382741</v>
       </c>
       <c r="I26" t="n">
-        <v>0.03961282642315046</v>
+        <v>0.01427334835039579</v>
       </c>
       <c r="J26" t="n">
-        <v>0.05419609949786365</v>
+        <v>0.06241043702394669</v>
       </c>
       <c r="K26" t="n">
-        <v>0.009435866529031046</v>
+        <v>0.05343786842412548</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03452575901759038</v>
+        <v>0.06763551543330486</v>
       </c>
       <c r="M26" t="n">
-        <v>0.04061609765248945</v>
+        <v>0.06580810387067243</v>
       </c>
       <c r="N26" t="n">
-        <v>0.07500543115990337</v>
+        <v>0.05720305574435126</v>
       </c>
       <c r="O26" t="n">
-        <v>0.03724309488612716</v>
+        <v>0.02916753941071286</v>
       </c>
       <c r="P26" t="n">
-        <v>0.05845463783937613</v>
+        <v>0.05063785506765125</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.05521594344642877</v>
+        <v>0.05338989858074244</v>
       </c>
       <c r="R26" t="n">
-        <v>0.03658020900951502</v>
+        <v>0.06033320761093891</v>
       </c>
       <c r="S26" t="n">
-        <v>0.02834855783260485</v>
+        <v>0.02097914456926364</v>
       </c>
       <c r="T26" t="n">
-        <v>0.04877369827611069</v>
+        <v>0.0509726152035647</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01133174174753018</v>
+        <v>0.05131384880421191</v>
       </c>
       <c r="V26" t="n">
-        <v>0.001911122826587278</v>
+        <v>0.001670764452224515</v>
       </c>
       <c r="W26" t="n">
-        <v>0.000364903370660748</v>
+        <v>0.0222914641659296</v>
       </c>
       <c r="X26" t="n">
-        <v>0.07492651490223785</v>
+        <v>0.03158547191957919</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.03559356604636504</v>
+        <v>0.05315221676465526</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.04097664309432079</v>
+        <v>0.0164472434746343</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.03338421240234352</v>
+        <v>0.02249896817891316</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.001156625537775251</v>
+        <v>0.003019125391099362</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.02554407341413254</v>
+        <v>0.0465939170745095</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.02593719146519054</v>
+        <v>0.01216215532221395</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.01006166907376115</v>
+        <v>0.05933213490189273</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.04052552110496335</v>
+        <v>0.04360255791493273</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.04523440199623773</v>
+        <v>0.008181939324083282</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.2105928692237883</v>
+        <v>0.1758872547555272</v>
       </c>
     </row>
     <row r="27">
@@ -3370,94 +3370,94 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.9232547643799414</v>
+        <v>0.797082534947874</v>
       </c>
       <c r="F27" t="n">
-        <v>0.04245391540838658</v>
+        <v>0.0317328667994425</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0525264124196415</v>
+        <v>0.04490665225097464</v>
       </c>
       <c r="H27" t="n">
-        <v>0.004249354925047207</v>
+        <v>0.002529441559399778</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03401493100233818</v>
+        <v>0.01472169810013153</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01743991402703834</v>
+        <v>0.03422508659640106</v>
       </c>
       <c r="K27" t="n">
-        <v>0.02703818803561972</v>
+        <v>0.01760247893365317</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0788073066659703</v>
+        <v>0.0555316089041095</v>
       </c>
       <c r="M27" t="n">
-        <v>0.06120661677525713</v>
+        <v>0.0571376719277852</v>
       </c>
       <c r="N27" t="n">
-        <v>0.06491767868595119</v>
+        <v>0.03020449042761788</v>
       </c>
       <c r="O27" t="n">
-        <v>0.009644669230095802</v>
+        <v>0.05528560130592664</v>
       </c>
       <c r="P27" t="n">
-        <v>0.03685758338584955</v>
+        <v>0.05037745616639502</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.03781097241495343</v>
+        <v>0.02339186438384586</v>
       </c>
       <c r="R27" t="n">
-        <v>0.01775971082136969</v>
+        <v>0.05899111603188383</v>
       </c>
       <c r="S27" t="n">
-        <v>0.01049087452401351</v>
+        <v>0.04749998467735645</v>
       </c>
       <c r="T27" t="n">
-        <v>0.008539319568038108</v>
+        <v>0.03626235645686306</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01069377127078193</v>
+        <v>0.02437658371512281</v>
       </c>
       <c r="V27" t="n">
-        <v>0.0001727898992809776</v>
+        <v>4.656079936226078e-06</v>
       </c>
       <c r="W27" t="n">
-        <v>0.03350483197558118</v>
+        <v>0.03459058217071063</v>
       </c>
       <c r="X27" t="n">
-        <v>0.05944750039870955</v>
+        <v>0.05827580580735028</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.01416882955558709</v>
+        <v>0.02131903913854095</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.05857769708001695</v>
+        <v>0.03461048627499763</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.01417874021329521</v>
+        <v>0.01914365534804452</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.07191675210700459</v>
+        <v>0.06165968869256758</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.03756638072612351</v>
+        <v>0.04670471489628619</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.0140593187826373</v>
+        <v>0.02299040600701114</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.06815739197660073</v>
+        <v>0.03449429174545222</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.06695037265548549</v>
+        <v>0.03033127469194585</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.04684817546932528</v>
+        <v>0.0510984409102478</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.1834322901036856</v>
+        <v>0.1937367866898035</v>
       </c>
     </row>
     <row r="28">
@@ -3480,94 +3480,94 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1885035025595716</v>
+        <v>0.1840683647467074</v>
       </c>
       <c r="F28" t="n">
-        <v>0.04444820018359374</v>
+        <v>0.06513140298884718</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0281516244816513</v>
+        <v>0.04111136965898447</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02376074954429418</v>
+        <v>0.02834973689393839</v>
       </c>
       <c r="I28" t="n">
-        <v>0.06706062022300303</v>
+        <v>0.05182525643561019</v>
       </c>
       <c r="J28" t="n">
-        <v>0.03035747904226471</v>
+        <v>0.06136110063653145</v>
       </c>
       <c r="K28" t="n">
-        <v>0.00673618135048191</v>
+        <v>0.0557950236769245</v>
       </c>
       <c r="L28" t="n">
-        <v>0.06735965033245823</v>
+        <v>0.04415638699594584</v>
       </c>
       <c r="M28" t="n">
-        <v>0.04160225027444972</v>
+        <v>0.04466602635084461</v>
       </c>
       <c r="N28" t="n">
-        <v>0.009155613689360603</v>
+        <v>0.01278192341964675</v>
       </c>
       <c r="O28" t="n">
-        <v>0.04724148653530703</v>
+        <v>0.03786076456767874</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0508549592089515</v>
+        <v>0.01121326126976587</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.05571569481779333</v>
+        <v>0.02395563187132307</v>
       </c>
       <c r="R28" t="n">
-        <v>0.04731087034579539</v>
+        <v>0.0256401259852076</v>
       </c>
       <c r="S28" t="n">
-        <v>0.03415549484762821</v>
+        <v>0.06079156201681797</v>
       </c>
       <c r="T28" t="n">
-        <v>0.06099390638891855</v>
+        <v>0.05070456611864752</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05045067201173063</v>
+        <v>0.03333282859575572</v>
       </c>
       <c r="V28" t="n">
-        <v>0.005985428986268521</v>
+        <v>0.002945590963365792</v>
       </c>
       <c r="W28" t="n">
-        <v>0.05506098505338013</v>
+        <v>0.04007939146675348</v>
       </c>
       <c r="X28" t="n">
-        <v>0.01534610007068266</v>
+        <v>0.04426677935088669</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.00085324329529667</v>
+        <v>0.004322490462660408</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.03628968767632611</v>
+        <v>0.04718907459748755</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.04742391313551301</v>
+        <v>0.01369209976877451</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.003724814020320585</v>
+        <v>0.04471466631526146</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.02342670247968619</v>
+        <v>0.0555194304941238</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.05993212432508967</v>
+        <v>0.05440292261993932</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.01816498631529231</v>
+        <v>0.02288744762440546</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.06310412785005796</v>
+        <v>0.01646827540995748</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.005332433514404178</v>
+        <v>0.004834863443914161</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.01354028866877412</v>
+        <v>0.04917498039396215</v>
       </c>
     </row>
     <row r="29">
@@ -3590,94 +3590,94 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.462160198202333</v>
+        <v>0.5827079874948234</v>
       </c>
       <c r="F29" t="n">
-        <v>0.039407159637337</v>
+        <v>0.07022008223041268</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02620410652009366</v>
+        <v>0.04595215424954569</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02826001654384891</v>
+        <v>0.0476155383560589</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01662125850353617</v>
+        <v>0.03600390636085717</v>
       </c>
       <c r="J29" t="n">
-        <v>0.06347336882530002</v>
+        <v>0.03844147919051346</v>
       </c>
       <c r="K29" t="n">
-        <v>0.02652581927656695</v>
+        <v>0.009820824683321792</v>
       </c>
       <c r="L29" t="n">
-        <v>0.06061293490565474</v>
+        <v>0.0276951424307667</v>
       </c>
       <c r="M29" t="n">
-        <v>0.04273789014287439</v>
+        <v>0.05944949463308076</v>
       </c>
       <c r="N29" t="n">
-        <v>0.006670119265338422</v>
+        <v>0.0003720698608641305</v>
       </c>
       <c r="O29" t="n">
-        <v>0.02402227322983835</v>
+        <v>0.07200302020026156</v>
       </c>
       <c r="P29" t="n">
-        <v>0.04181479850402829</v>
+        <v>0.04404780369725143</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.06472468365294858</v>
+        <v>0.05951804326052985</v>
       </c>
       <c r="R29" t="n">
-        <v>0.055293972419842</v>
+        <v>0.02032416276787058</v>
       </c>
       <c r="S29" t="n">
-        <v>0.0475566123952552</v>
+        <v>0.0358041230679254</v>
       </c>
       <c r="T29" t="n">
-        <v>0.03600613060197511</v>
+        <v>0.05857139704734264</v>
       </c>
       <c r="U29" t="n">
-        <v>0.008528371148315015</v>
+        <v>0.008562756117304029</v>
       </c>
       <c r="V29" t="n">
-        <v>0.001142731839200778</v>
+        <v>0.009640718025074499</v>
       </c>
       <c r="W29" t="n">
-        <v>0.052510106559042</v>
+        <v>0.0389579694896219</v>
       </c>
       <c r="X29" t="n">
-        <v>0.06505930513604682</v>
+        <v>0.01589249005737163</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.003782300610670655</v>
+        <v>0.005736194505085055</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.02442325157206748</v>
+        <v>0.06242299095305791</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.06453708325714233</v>
+        <v>0.02842339371206193</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.03091326171522147</v>
+        <v>0.009341074283357292</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.05646404918847129</v>
+        <v>0.01915849949183521</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.002608490083898091</v>
+        <v>0.04643661038181747</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.001232139838259297</v>
+        <v>0.02974055171358657</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.04876078377108741</v>
+        <v>0.02263942019039103</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.06010698085613951</v>
+        <v>0.07720808904283265</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.05085247579010828</v>
+        <v>0.07370706085546821</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DJI/Efficient Portfolios with Prediction/Manual Recurrence/input 125/DJI_efficient_portfolios_and_returns_with_prediction_annual.xlsx
+++ b/Code/Data/DJI/Efficient Portfolios with Prediction/Manual Recurrence/input 125/DJI_efficient_portfolios_and_returns_with_prediction_annual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -620,94 +620,94 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.2905511428105197</v>
+        <v>0.2504269151650559</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01282254727032959</v>
+        <v>0.01283397364219871</v>
       </c>
       <c r="G2" t="n">
-        <v>0.004296766936930422</v>
+        <v>0.05793514350549116</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01329895361932022</v>
+        <v>0.01175726895624829</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05644944541653056</v>
+        <v>0.03414275276579854</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06078381005237786</v>
+        <v>0.06533811734795182</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03385820099084969</v>
+        <v>0.06611359666252316</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001845283776413093</v>
+        <v>0.004576170598979772</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04659711244401249</v>
+        <v>0.02599591527109985</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05476577805477862</v>
+        <v>0.04535753226951883</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03874879514412739</v>
+        <v>0.01451596854335602</v>
       </c>
       <c r="P2" t="n">
-        <v>0.06327194494027022</v>
+        <v>0.06950947985975788</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.06630550805757308</v>
+        <v>0.0443425688238363</v>
       </c>
       <c r="R2" t="n">
-        <v>0.009954336587985491</v>
+        <v>0.0239999106177987</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01801468199791849</v>
+        <v>0.02546657913365513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.05614180499005297</v>
+        <v>0.01383901368246495</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05569585411297329</v>
+        <v>0.02546985646395902</v>
       </c>
       <c r="V2" t="n">
-        <v>0.06021358508503286</v>
+        <v>0.0479318603013807</v>
       </c>
       <c r="W2" t="n">
-        <v>0.05738687624773491</v>
+        <v>0.05325067724582506</v>
       </c>
       <c r="X2" t="n">
-        <v>0.06159436010257664</v>
+        <v>0.04248127411206155</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.003741579652028942</v>
+        <v>0.05280803828688498</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.05274285734630413</v>
+        <v>0.06989945089461483</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.00790075556278586</v>
+        <v>0.006324092639187261</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.002870363023847912</v>
+        <v>0.00376506807563124</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.003603291737646322</v>
+        <v>0.04712147894625957</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.06549747437397609</v>
+        <v>0.02030657606024657</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.04576239368615942</v>
+        <v>0.03070678345869853</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.01027848925414923</v>
+        <v>0.04982055923105356</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.03721790493408582</v>
+        <v>0.034390292603518</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.1029094938796418</v>
+        <v>0.08788012380500777</v>
       </c>
     </row>
     <row r="3">
@@ -730,94 +730,94 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.032612295978513</v>
+        <v>0.6292669922459675</v>
       </c>
       <c r="F3" t="n">
-        <v>1.178127910221875e-05</v>
+        <v>0.06539346268443087</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05670803058719882</v>
+        <v>0.003272165787600515</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05315923728027568</v>
+        <v>0.00883436461399917</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04157954908512207</v>
+        <v>0.01194660225968137</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02318855776743263</v>
+        <v>0.02854565245245001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02001153212333305</v>
+        <v>0.03044874184517537</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01401320718842125</v>
+        <v>0.01812105207860991</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04445600164769042</v>
+        <v>0.04987587271465167</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01044774271091863</v>
+        <v>0.07589796967655588</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0042415248832012</v>
+        <v>0.05859908250787847</v>
       </c>
       <c r="P3" t="n">
-        <v>0.06411162729693801</v>
+        <v>0.002533330543555921</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0606372509968106</v>
+        <v>0.05898402929431914</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05338347562555006</v>
+        <v>0.01939014664394141</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01136131894789828</v>
+        <v>0.001321890162450768</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0550077929629471</v>
+        <v>0.01968865009416481</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02830686072942311</v>
+        <v>0.07153463330799359</v>
       </c>
       <c r="V3" t="n">
-        <v>0.05542793982394483</v>
+        <v>0.06403723035828406</v>
       </c>
       <c r="W3" t="n">
-        <v>0.05547231662950208</v>
+        <v>0.06258199026881735</v>
       </c>
       <c r="X3" t="n">
-        <v>0.03682700629046681</v>
+        <v>0.05748452933512463</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.03355863109450882</v>
+        <v>0.02702482148665954</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.02335693108223866</v>
+        <v>0.03094530589818597</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.02670166922532234</v>
+        <v>0.01859778983787065</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.06822856803200203</v>
+        <v>0.02073140377926237</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0128023515093572</v>
+        <v>0.04814574580112099</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.045241507999597e-05</v>
+        <v>0.03021866899696188</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.03448882255897091</v>
+        <v>0.07677563189904554</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.05378157913362931</v>
+        <v>0.02590530851192875</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.05866824109271391</v>
+        <v>0.01316392715927937</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.05046814156701202</v>
+        <v>0.1698029625776104</v>
       </c>
     </row>
     <row r="4">
@@ -840,94 +840,94 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1377475482364736</v>
+        <v>0.1296956306180571</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001544133856802128</v>
+        <v>0.002975184707635049</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06214789149627756</v>
+        <v>0.05912360752063357</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02163100492820487</v>
+        <v>0.03574427536776078</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06241657392366854</v>
+        <v>0.05790138497322377</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05845761708293529</v>
+        <v>0.02598101938796142</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00897193306962254</v>
+        <v>0.003015994494739369</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05007761874815259</v>
+        <v>0.0530274516394375</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06022348235809514</v>
+        <v>0.05663073853220452</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05701897124401298</v>
+        <v>0.05167749772058022</v>
       </c>
       <c r="O4" t="n">
-        <v>0.008416900939672695</v>
+        <v>0.02488582898170688</v>
       </c>
       <c r="P4" t="n">
-        <v>0.05487312716992727</v>
+        <v>0.03921205991156264</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.272816118668926e-05</v>
+        <v>0.02205618281297313</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03946671338154297</v>
+        <v>0.02834878916483912</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02009279504137917</v>
+        <v>6.028587192162566e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0482867227212106</v>
+        <v>0.06320113939951812</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04643162539065367</v>
+        <v>0.05186370727605699</v>
       </c>
       <c r="V4" t="n">
-        <v>0.04113130872298506</v>
+        <v>0.04229371785164187</v>
       </c>
       <c r="W4" t="n">
-        <v>0.06284243295350507</v>
+        <v>0.03807622481486875</v>
       </c>
       <c r="X4" t="n">
-        <v>0.05189840712990931</v>
+        <v>0.05107648052747645</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.003714112780464653</v>
+        <v>0.002917683386618864</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.02131533548593077</v>
+        <v>0.06892970901798245</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.009067720208498997</v>
+        <v>0.06547377225867536</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.02381053966879945</v>
+        <v>0.04538215153846074</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.05393339037003415</v>
+        <v>0.02089657648912521</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.05348784638217292</v>
+        <v>0.01088402751978314</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.02768793255321631</v>
+        <v>0.03042888079608761</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.00603893249817996</v>
+        <v>0.01014041632077223</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.04500220173295859</v>
+        <v>0.03779521171575265</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.2936424821544729</v>
+        <v>-0.3140652136002539</v>
       </c>
     </row>
     <row r="5">
@@ -950,94 +950,94 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.5023725269764594</v>
+        <v>0.7741375960203566</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001058322170033513</v>
+        <v>0.07157636754447387</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03657679667173632</v>
+        <v>0.01604667950579326</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03767521575234798</v>
+        <v>0.06054852866425759</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05440876078812076</v>
+        <v>0.03261971917114903</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06967107955064521</v>
+        <v>0.04808630738920693</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05834077244446589</v>
+        <v>0.04261742184567639</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02875192105976172</v>
+        <v>0.01871358301210829</v>
       </c>
       <c r="M5" t="n">
-        <v>0.010246128134789</v>
+        <v>0.06727120312763789</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01699536063209568</v>
+        <v>0.06801562670049757</v>
       </c>
       <c r="O5" t="n">
-        <v>0.05068289632236764</v>
+        <v>0.009561424359074124</v>
       </c>
       <c r="P5" t="n">
-        <v>0.06440594848714376</v>
+        <v>0.008509666968162371</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.017576121704616</v>
+        <v>0.05274349820449396</v>
       </c>
       <c r="R5" t="n">
-        <v>0.005915002862784195</v>
+        <v>0.02743442344706366</v>
       </c>
       <c r="S5" t="n">
-        <v>0.07204194437774833</v>
+        <v>0.05661532938921334</v>
       </c>
       <c r="T5" t="n">
-        <v>0.04835296921764517</v>
+        <v>0.02881004681430985</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001814311168588091</v>
+        <v>0.009324930413329447</v>
       </c>
       <c r="V5" t="n">
-        <v>0.04059442077201837</v>
+        <v>0.03299279829602172</v>
       </c>
       <c r="W5" t="n">
-        <v>0.06156739451828963</v>
+        <v>0.05367011575748101</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01939226305502944</v>
+        <v>0.04460327887667441</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01159667395859246</v>
+        <v>0.02190980786933076</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.009011743798947373</v>
+        <v>0.04775217520558533</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.04214888008977041</v>
+        <v>0.01083182780513773</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.05392097981265147</v>
+        <v>0.02799395086576353</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.06857206257830828</v>
+        <v>0.002061428404402767</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.02445946501566203</v>
+        <v>4.400318510352506e-05</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.01202122934731855</v>
+        <v>0.06354382113331336</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.009115838448571709</v>
+        <v>0.02958092527759313</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.07308549725995099</v>
+        <v>0.04652111076714516</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.3384204055881737</v>
+        <v>-0.4116723672468334</v>
       </c>
     </row>
     <row r="6">
@@ -1060,94 +1060,94 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2361987673907815</v>
+        <v>0.2349414275039816</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02786969454112235</v>
+        <v>0.03173558430467534</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03994051123225437</v>
+        <v>0.007669161123432459</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03618254322738258</v>
+        <v>0.00111222512156825</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04104374770113275</v>
+        <v>0.05312292246499584</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01161240319240459</v>
+        <v>0.006868987589715002</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01224640437089096</v>
+        <v>0.01866157170476325</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0154400623112368</v>
+        <v>0.0378694407909275</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0512941739537122</v>
+        <v>0.03970866381166575</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05962308946319889</v>
+        <v>0.02572138861442285</v>
       </c>
       <c r="O6" t="n">
-        <v>0.009371484405145606</v>
+        <v>0.003164352423043065</v>
       </c>
       <c r="P6" t="n">
-        <v>0.05650513262235603</v>
+        <v>0.009449773989842036</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0007799956686135031</v>
+        <v>0.0378703060138981</v>
       </c>
       <c r="R6" t="n">
-        <v>0.06791076319807136</v>
+        <v>0.03169420112968095</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01284077025740783</v>
+        <v>0.003524455813527373</v>
       </c>
       <c r="T6" t="n">
-        <v>0.06207293325701899</v>
+        <v>0.008001109191735108</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003862363704493221</v>
+        <v>0.03053697233230298</v>
       </c>
       <c r="V6" t="n">
-        <v>0.01999283988783063</v>
+        <v>0.07538104313819113</v>
       </c>
       <c r="W6" t="n">
-        <v>0.06540303865133558</v>
+        <v>0.06871868377207123</v>
       </c>
       <c r="X6" t="n">
-        <v>0.04887427941341025</v>
+        <v>0.05405935809595214</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.04987445854938212</v>
+        <v>0.04816815633208453</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.01405953978545564</v>
+        <v>0.04629547773292292</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.06125729070549348</v>
+        <v>0.04077207837257324</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.0571879293807661</v>
+        <v>0.07502915075823324</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.03900924251225591</v>
+        <v>0.0582503491730198</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.006940943870606443</v>
+        <v>0.04070971412969567</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.02194146952837986</v>
+        <v>0.0582578610831354</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.05458169453502144</v>
+        <v>0.04941081617636778</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.05228120007362073</v>
+        <v>0.03823619481555713</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.208212554431696</v>
+        <v>0.1934721856122315</v>
       </c>
     </row>
     <row r="7">
@@ -1170,94 +1170,94 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.3581912943667181</v>
+        <v>0.3555493915644883</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07607779913896241</v>
+        <v>0.05081060099904802</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05631710850569981</v>
+        <v>0.07228089258695579</v>
       </c>
       <c r="H7" t="n">
-        <v>0.008963093752953472</v>
+        <v>0.006490348475860329</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06497921402612933</v>
+        <v>0.001464489941558836</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02266410171545013</v>
+        <v>0.05956671317427776</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00477150065428522</v>
+        <v>0.01421524637108516</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06750242115468029</v>
+        <v>0.0701265057181967</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0342112005333325</v>
+        <v>0.01555419128300822</v>
       </c>
       <c r="N7" t="n">
-        <v>0.07426107418379597</v>
+        <v>0.01380057423592242</v>
       </c>
       <c r="O7" t="n">
-        <v>0.05662219120829598</v>
+        <v>0.06012200413921401</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05304044230833906</v>
+        <v>0.03015178592253561</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02761404112111697</v>
+        <v>0.06697519240253672</v>
       </c>
       <c r="R7" t="n">
-        <v>0.07924715957710662</v>
+        <v>0.06952316548142183</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02764028737809839</v>
+        <v>0.03514570780244951</v>
       </c>
       <c r="T7" t="n">
-        <v>0.04663650507368316</v>
+        <v>0.02518308578052811</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02336576615287404</v>
+        <v>0.005612045161277538</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02364994038905503</v>
+        <v>0.0632479996798908</v>
       </c>
       <c r="W7" t="n">
-        <v>0.008778870843831391</v>
+        <v>0.06084697603444629</v>
       </c>
       <c r="X7" t="n">
-        <v>0.06333013566302077</v>
+        <v>0.03979135741981512</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.005001622608464686</v>
+        <v>0.02290618138396839</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.009748954923734982</v>
+        <v>0.02532073907648476</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01174068918468548</v>
+        <v>0.0585278228651588</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.002564392542250681</v>
+        <v>0.01614964370978004</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.001580998290730371</v>
+        <v>0.01982722513503734</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.01209257223883588</v>
+        <v>0.01334116547824374</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.03566192673937118</v>
+        <v>0.005384064425746113</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.02448407391224664</v>
+        <v>0.01556180157962271</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.07745191617896971</v>
+        <v>0.06207247373592923</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.2709083859036889</v>
+        <v>0.2476447775230506</v>
       </c>
     </row>
     <row r="8">
@@ -1280,94 +1280,94 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2771553800864692</v>
+        <v>0.2889065167005271</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01243715086468634</v>
+        <v>0.01917016038608978</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02339511613935107</v>
+        <v>0.05559413319375047</v>
       </c>
       <c r="H8" t="n">
-        <v>0.004724859762729012</v>
+        <v>0.05309711558070551</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0547657456904967</v>
+        <v>0.02194814711948689</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01300747882797979</v>
+        <v>0.005189574504773887</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0471103730991113</v>
+        <v>0.03955639579569499</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03141979249647209</v>
+        <v>0.001922085850434152</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03274103875157371</v>
+        <v>0.005626196557374046</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0563965019813746</v>
+        <v>0.01385903922754465</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005051822599107433</v>
+        <v>0.02432452634158548</v>
       </c>
       <c r="P8" t="n">
-        <v>0.04696645041278903</v>
+        <v>0.05156586499798951</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04659950178400711</v>
+        <v>0.08368990382723412</v>
       </c>
       <c r="R8" t="n">
-        <v>0.05310670036268302</v>
+        <v>0.03875563182245663</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0695291244311123</v>
+        <v>0.03607309991698944</v>
       </c>
       <c r="T8" t="n">
-        <v>0.06622177684741153</v>
+        <v>0.03951580384740691</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003754726011481383</v>
+        <v>0.003319344496410319</v>
       </c>
       <c r="V8" t="n">
-        <v>0.04959135947503675</v>
+        <v>0.0219123870567785</v>
       </c>
       <c r="W8" t="n">
-        <v>0.04844509156139791</v>
+        <v>0.06007036957147381</v>
       </c>
       <c r="X8" t="n">
-        <v>0.001965274800878149</v>
+        <v>0.000232720832441275</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.04771743047306495</v>
+        <v>0.01720922639583098</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.05770307757602444</v>
+        <v>0.07819430573068778</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0484940012837568</v>
+        <v>0.02044781779674732</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.03844697384262993</v>
+        <v>0.07979167808546116</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.008462555490673816</v>
+        <v>0.02546158795257881</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.001642348923524975</v>
+        <v>0.08320519806599651</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.05862446718983758</v>
+        <v>0.02218515329897832</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.007652002236271664</v>
+        <v>0.05062640782422002</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.06402725708453672</v>
+        <v>0.04745612392287861</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.1113414873493352</v>
+        <v>0.108905732269689</v>
       </c>
     </row>
     <row r="9">
@@ -1390,94 +1390,94 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.3517886528574676</v>
+        <v>0.3610906226367706</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07142137835166912</v>
+        <v>0.08947439259783682</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003676527234085531</v>
+        <v>0.02048634172297408</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07649109415499118</v>
+        <v>0.09048339366753846</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07324611342576003</v>
+        <v>0.0325512317177936</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0153701152244834</v>
+        <v>0.05301352502341269</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05252306657814609</v>
+        <v>0.06234538701855254</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0796094695799214</v>
+        <v>0.04447515698672978</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0121488522380974</v>
+        <v>0.04424796799245868</v>
       </c>
       <c r="N9" t="n">
-        <v>0.07938210564319097</v>
+        <v>0.01907341820041075</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03386896129196742</v>
+        <v>0.04164456789423074</v>
       </c>
       <c r="P9" t="n">
-        <v>0.05015074200035603</v>
+        <v>0.07143109357642614</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0764225903203509</v>
+        <v>0.02109039122568198</v>
       </c>
       <c r="R9" t="n">
-        <v>0.001784506178189619</v>
+        <v>0.0012322176802035</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01493852936743135</v>
+        <v>0.00601107748220725</v>
       </c>
       <c r="T9" t="n">
-        <v>0.02822109340387416</v>
+        <v>0.03628244192041047</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01200098173118942</v>
+        <v>0.01919899219936243</v>
       </c>
       <c r="V9" t="n">
-        <v>0.04165059533967423</v>
+        <v>0.07357535626632479</v>
       </c>
       <c r="W9" t="n">
-        <v>0.006447571409321007</v>
+        <v>0.02469188726239715</v>
       </c>
       <c r="X9" t="n">
-        <v>0.009605836040519105</v>
+        <v>0.005955854781151967</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.04557974349070724</v>
+        <v>0.02110092198290849</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.07592483924842403</v>
+        <v>0.01816316410632423</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.06542742502971445</v>
+        <v>0.01045489468190851</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.002959111622585609</v>
+        <v>0.01641859547996101</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.0009804789521063242</v>
+        <v>0.02474928667057905</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.02005267700819326</v>
+        <v>0.07693292534466227</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.006984364745114087</v>
+        <v>0.04828192933319972</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.006159400029726174</v>
+        <v>0.01790446266408605</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.03697183036021047</v>
+        <v>0.008729124520266947</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.1282515833933437</v>
+        <v>0.1603927918420133</v>
       </c>
     </row>
     <row r="10">
@@ -1500,94 +1500,94 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2540472390043321</v>
+        <v>0.2182467688454446</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03941242068754439</v>
+        <v>0.0277983411515189</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05143272062797465</v>
+        <v>0.02613223231802747</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02287239885168775</v>
+        <v>0.04236650265247535</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02325575390682716</v>
+        <v>0.0520713176671185</v>
       </c>
       <c r="J10" t="n">
-        <v>0.003703025363942689</v>
+        <v>0.01640032426715169</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001263887324086816</v>
+        <v>0.002424881661288265</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06274879139330169</v>
+        <v>0.006217994159800325</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05134208955574617</v>
+        <v>0.05630263515092298</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02020491748699046</v>
+        <v>0.05586488864469184</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02161381708660856</v>
+        <v>0.007183142297583471</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01250406080859476</v>
+        <v>0.05793433511030607</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.07752634370283856</v>
+        <v>0.01637763503050043</v>
       </c>
       <c r="R10" t="n">
-        <v>0.07599082564385573</v>
+        <v>0.03758704794294815</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0353073160172904</v>
+        <v>0.06634933873164466</v>
       </c>
       <c r="T10" t="n">
-        <v>0.001345074876120418</v>
+        <v>0.02051754414575339</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02994830673105831</v>
+        <v>0.02263662936474501</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01439924104333515</v>
+        <v>0.006093387503381951</v>
       </c>
       <c r="W10" t="n">
-        <v>0.006680002662063141</v>
+        <v>0.01095040606104464</v>
       </c>
       <c r="X10" t="n">
-        <v>0.03439487041637353</v>
+        <v>0.05351566981781703</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01291913365920805</v>
+        <v>0.01799542120561718</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.06023976712700468</v>
+        <v>0.0471705034509184</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.06175032151973736</v>
+        <v>0.06897485154394857</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.04826350955821959</v>
+        <v>0.06644397084623113</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.08135934596459191</v>
+        <v>0.07039113994560728</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.02919675818786815</v>
+        <v>0.05677076717062529</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.04130035691759549</v>
+        <v>0.00110816675615405</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.03278146463259462</v>
+        <v>0.0210482676769563</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.04624347824693972</v>
+        <v>0.06537265772522174</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.04269980056232787</v>
+        <v>0.07376548965297174</v>
       </c>
     </row>
     <row r="11">
@@ -1610,94 +1610,94 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.8058338787602009</v>
+        <v>0.7618593037135827</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02960879874589945</v>
+        <v>0.02403963986415281</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02855113964192127</v>
+        <v>0.01474660721266736</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02945654939556862</v>
+        <v>0.06001907734031468</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01344935960220369</v>
+        <v>0.05952044163814263</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001737285639311793</v>
+        <v>0.07403845967171409</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07325731115546029</v>
+        <v>0.07183536065146989</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01645867998433765</v>
+        <v>0.002161941412205363</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03080229124445138</v>
+        <v>4.359965412058014e-05</v>
       </c>
       <c r="N11" t="n">
-        <v>0.02261032824822102</v>
+        <v>0.0003482793293283617</v>
       </c>
       <c r="O11" t="n">
-        <v>0.05143800060259123</v>
+        <v>0.003058230912793801</v>
       </c>
       <c r="P11" t="n">
-        <v>0.07185948295397732</v>
+        <v>0.03794736553945377</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.06594388402970922</v>
+        <v>0.05312152010358743</v>
       </c>
       <c r="R11" t="n">
-        <v>0.07101207749789019</v>
+        <v>0.02931009505482445</v>
       </c>
       <c r="S11" t="n">
-        <v>0.05118287122638406</v>
+        <v>0.005325376731155347</v>
       </c>
       <c r="T11" t="n">
-        <v>0.02144820731493825</v>
+        <v>0.02118244627993273</v>
       </c>
       <c r="U11" t="n">
-        <v>0.007675740879992543</v>
+        <v>0.0184357262673005</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01012847006684478</v>
+        <v>0.007215727961556239</v>
       </c>
       <c r="W11" t="n">
-        <v>0.02268631792688262</v>
+        <v>0.07340736699612116</v>
       </c>
       <c r="X11" t="n">
-        <v>0.04455797524231696</v>
+        <v>0.04511228214044084</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.07371459055208907</v>
+        <v>0.02144188950988387</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.01040712374347398</v>
+        <v>0.0293800517338379</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.04462642725172897</v>
+        <v>0.02482411795033294</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.01741907169350082</v>
+        <v>0.04105179034332531</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.04752569080058382</v>
+        <v>0.06770275397507555</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.05216589709498775</v>
+        <v>0.07273972681706965</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.03759563418161179</v>
+        <v>0.04409345862721675</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.05210051190000935</v>
+        <v>0.04903566104239455</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.0005802813831120271</v>
+        <v>0.0488610052395815</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.02188060448003902</v>
+        <v>0.04866293974294369</v>
       </c>
     </row>
     <row r="12">
@@ -1720,94 +1720,94 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1663053857984825</v>
+        <v>0.1627574617751895</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02394751100024526</v>
+        <v>0.03400248712849152</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05764665188078867</v>
+        <v>0.05382160668375933</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01111758276710499</v>
+        <v>0.04242829809022372</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04343018200654495</v>
+        <v>0.03908203811690416</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004827514197632901</v>
+        <v>0.0555107965655565</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003839560550367805</v>
+        <v>0.001489362711124651</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0523013656180093</v>
+        <v>0.01026491342988963</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0392223512850781</v>
+        <v>0.006431609390547362</v>
       </c>
       <c r="N12" t="n">
-        <v>0.004311728351533432</v>
+        <v>0.006314166347499939</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02575218633304879</v>
+        <v>0.02187227736528864</v>
       </c>
       <c r="P12" t="n">
-        <v>0.02683181624313041</v>
+        <v>0.06153358085271504</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.06949182831985506</v>
+        <v>0.001465411220163412</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0350717001372879</v>
+        <v>0.06495576190784355</v>
       </c>
       <c r="S12" t="n">
-        <v>0.06696719390367198</v>
+        <v>0.06173718829699287</v>
       </c>
       <c r="T12" t="n">
-        <v>0.05988564967822464</v>
+        <v>0.06329303914031885</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01556742736477563</v>
+        <v>0.05419302960661335</v>
       </c>
       <c r="V12" t="n">
-        <v>0.05611713962464861</v>
+        <v>0.04102023529924869</v>
       </c>
       <c r="W12" t="n">
-        <v>0.01083121312731132</v>
+        <v>0.006738532927386667</v>
       </c>
       <c r="X12" t="n">
-        <v>0.03341831004718587</v>
+        <v>0.03797659860912878</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.02850977942264137</v>
+        <v>0.07222319513523293</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.04514419860059447</v>
+        <v>0.06641474438788765</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.005480613171798421</v>
+        <v>0.01881815495725508</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.06997657398377724</v>
+        <v>0.06577559570227355</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.07003665017858648</v>
+        <v>0.03779765851913622</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.04121134731102465</v>
+        <v>0.01666623373809123</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.04485065420227926</v>
+        <v>0.0184136053997184</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.05217766582072915</v>
+        <v>0.03778721031201728</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.00203360487212342</v>
+        <v>0.001972668158691073</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.08758475106929371</v>
+        <v>0.09625283136901765</v>
       </c>
     </row>
     <row r="13">
@@ -1830,94 +1830,94 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1.359990124669412</v>
+        <v>0.5499672450819484</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02266836064547644</v>
+        <v>0.02345931620005298</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04453190283251908</v>
+        <v>0.01280697980091234</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03005535488931839</v>
+        <v>0.04494497661919498</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03086391146504085</v>
+        <v>0.007321085457045034</v>
       </c>
       <c r="J13" t="n">
-        <v>0.07187489028202333</v>
+        <v>0.06901785351271691</v>
       </c>
       <c r="K13" t="n">
-        <v>0.03177059238648023</v>
+        <v>0.05243746921393001</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05398604017909955</v>
+        <v>0.04760706443911261</v>
       </c>
       <c r="M13" t="n">
-        <v>0.06865095238334626</v>
+        <v>0.07548098952445877</v>
       </c>
       <c r="N13" t="n">
-        <v>0.001542804549802393</v>
+        <v>0.04792030987767539</v>
       </c>
       <c r="O13" t="n">
-        <v>0.004376788304089086</v>
+        <v>0.03197109845000789</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0536814574701522</v>
+        <v>0.01886669785565506</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02733261547377673</v>
+        <v>0.02607535657728506</v>
       </c>
       <c r="R13" t="n">
-        <v>0.006847305718297699</v>
+        <v>0.05036997184247945</v>
       </c>
       <c r="S13" t="n">
-        <v>0.04711659720011963</v>
+        <v>0.05902692752935737</v>
       </c>
       <c r="T13" t="n">
-        <v>0.01835449569138952</v>
+        <v>0.000549861687600362</v>
       </c>
       <c r="U13" t="n">
-        <v>0.004042268333080926</v>
+        <v>0.01035527275055679</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0287569771482585</v>
+        <v>0.0108001218489689</v>
       </c>
       <c r="W13" t="n">
-        <v>0.002862623119185338</v>
+        <v>0.08581596433058368</v>
       </c>
       <c r="X13" t="n">
-        <v>0.01846429348571175</v>
+        <v>0.02155014634231017</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.03572732908165031</v>
+        <v>0.02969988299791166</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.0353149115667515</v>
+        <v>0.0006038063920499935</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.08010538213191941</v>
+        <v>0.001843302610269542</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.002987582043731463</v>
+        <v>0.07661325562504406</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.03799647504239546</v>
+        <v>0.008505842763069671</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.05767718717481763</v>
+        <v>0.05876762626591864</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.04661726446745146</v>
+        <v>0.04156891632455716</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.05905852047566162</v>
+        <v>0.0001975437370355817</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.07673511645845313</v>
+        <v>0.0858223594242402</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.09943092346378567</v>
+        <v>0.08314807663501843</v>
       </c>
     </row>
     <row r="14">
@@ -1940,94 +1940,94 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.1491422315254397</v>
+        <v>0.1500310930899408</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05537718438293881</v>
+        <v>0.05574694521221207</v>
       </c>
       <c r="G14" t="n">
-        <v>0.003034500308926236</v>
+        <v>0.004247409847661866</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06956740111224763</v>
+        <v>0.01493847093546071</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01874081847688793</v>
+        <v>0.03699455844156101</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05313043072310047</v>
+        <v>0.05295156170769643</v>
       </c>
       <c r="K14" t="n">
-        <v>0.004079538717106321</v>
+        <v>0.05042834391846228</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0313678539453271</v>
+        <v>0.005091527615955034</v>
       </c>
       <c r="M14" t="n">
-        <v>0.04281917221016291</v>
+        <v>0.03650180079678479</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0214809984037316</v>
+        <v>0.03404564974672448</v>
       </c>
       <c r="O14" t="n">
-        <v>0.06472080343795304</v>
+        <v>0.008073415134761269</v>
       </c>
       <c r="P14" t="n">
-        <v>0.002138193585604478</v>
+        <v>0.0006992445238940168</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.003728303070522253</v>
+        <v>0.007897113041923597</v>
       </c>
       <c r="R14" t="n">
-        <v>0.06456953997102083</v>
+        <v>0.0690715099812232</v>
       </c>
       <c r="S14" t="n">
-        <v>0.04074845587302539</v>
+        <v>0.06577986043483612</v>
       </c>
       <c r="T14" t="n">
-        <v>0.01601138192071823</v>
+        <v>0.02271125664312964</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0248728015287186</v>
+        <v>0.008027080600587752</v>
       </c>
       <c r="V14" t="n">
-        <v>0.06542877201528143</v>
+        <v>0.06008712402209131</v>
       </c>
       <c r="W14" t="n">
-        <v>0.01863134715726843</v>
+        <v>0.06428515245278771</v>
       </c>
       <c r="X14" t="n">
-        <v>0.04421150239280352</v>
+        <v>0.07165196775788864</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.07244643137888662</v>
+        <v>0.01584144539275477</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.01060299626646702</v>
+        <v>0.01993371810322944</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.01923297087037448</v>
+        <v>0.005159129643246257</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.07413411861904137</v>
+        <v>0.0696861747182921</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.01591024109377115</v>
+        <v>0.03221334381026174</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.05055137414809329</v>
+        <v>0.000499165729268544</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.04684204899699716</v>
+        <v>0.05084435053629035</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.0133371135549611</v>
+        <v>0.06996801680206638</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.05228370583806276</v>
+        <v>0.06662466244894867</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.1948511117687122</v>
+        <v>0.1934106069158548</v>
       </c>
     </row>
     <row r="15">
@@ -2050,94 +2050,94 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.2443533086035579</v>
+        <v>0.3224137061065572</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0697708310857619</v>
+        <v>0.08599598990832522</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06720222571054715</v>
+        <v>0.05825244313660254</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03579846521256065</v>
+        <v>0.07610497354277812</v>
       </c>
       <c r="I15" t="n">
-        <v>0.05850529247390627</v>
+        <v>0.005824731969690357</v>
       </c>
       <c r="J15" t="n">
-        <v>0.009351638184892803</v>
+        <v>0.03160277891803678</v>
       </c>
       <c r="K15" t="n">
-        <v>0.005839429730869593</v>
+        <v>0.07350599928707539</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0153351531702261</v>
+        <v>0.009156227649053801</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002389280322203778</v>
+        <v>0.02992847159598267</v>
       </c>
       <c r="N15" t="n">
-        <v>0.02028372883988105</v>
+        <v>0.004769222448395588</v>
       </c>
       <c r="O15" t="n">
-        <v>0.05332642250288512</v>
+        <v>0.08054267713176531</v>
       </c>
       <c r="P15" t="n">
-        <v>2.177161062801836e-05</v>
+        <v>0.03082723212676578</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.02677909062058032</v>
+        <v>0.008608407622645871</v>
       </c>
       <c r="R15" t="n">
-        <v>0.05037334717241274</v>
+        <v>0.002153758112056176</v>
       </c>
       <c r="S15" t="n">
-        <v>0.01802109117501992</v>
+        <v>0.007934340197719443</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0618838684269418</v>
+        <v>0.04237821514705801</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05755525895083301</v>
+        <v>0.08654147809684139</v>
       </c>
       <c r="V15" t="n">
-        <v>0.05495630877594841</v>
+        <v>0.0002816501111343065</v>
       </c>
       <c r="W15" t="n">
-        <v>0.004477007408523371</v>
+        <v>0.01982340563011359</v>
       </c>
       <c r="X15" t="n">
-        <v>0.006729771817894483</v>
+        <v>0.01626855602008504</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.05839516475214512</v>
+        <v>0.08534684109250019</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.03615990053533193</v>
+        <v>0.005508886076139606</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.05476773276550159</v>
+        <v>0.03838130473565207</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.03822447387200259</v>
+        <v>0.01166129614229915</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.0548750582170123</v>
+        <v>0.07558384726068477</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.02057475670935962</v>
+        <v>0.02890838409628066</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.0685018349141064</v>
+        <v>0.02248681538124759</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.03066674551924792</v>
+        <v>0.01049044645115341</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.01923434952277622</v>
+        <v>0.05113162011191742</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.2359293311603966</v>
+        <v>0.230177361217362</v>
       </c>
     </row>
     <row r="16">
@@ -2160,94 +2160,94 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.24360790378261</v>
+        <v>0.1982273145964327</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04649588714618378</v>
+        <v>0.02662176059590476</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02069108560512418</v>
+        <v>0.005347739480236749</v>
       </c>
       <c r="H16" t="n">
-        <v>0.04695014551207558</v>
+        <v>0.06137957312087074</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03924281822583563</v>
+        <v>0.06803317982383521</v>
       </c>
       <c r="J16" t="n">
-        <v>0.03055123843289805</v>
+        <v>0.05909852445303252</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02381925993169948</v>
+        <v>0.04024704280440061</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06684699341498769</v>
+        <v>0.07116925433501317</v>
       </c>
       <c r="M16" t="n">
-        <v>0.06116244525981496</v>
+        <v>0.03224957616781408</v>
       </c>
       <c r="N16" t="n">
-        <v>0.03953662522996453</v>
+        <v>0.06972760127191639</v>
       </c>
       <c r="O16" t="n">
-        <v>0.00780287854631904</v>
+        <v>0.02051603400789383</v>
       </c>
       <c r="P16" t="n">
-        <v>0.03288670227405478</v>
+        <v>0.06196218733844151</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.05803692454750187</v>
+        <v>0.02742555511071171</v>
       </c>
       <c r="R16" t="n">
-        <v>0.04501833769363617</v>
+        <v>0.03734838920854785</v>
       </c>
       <c r="S16" t="n">
-        <v>0.03671901700351099</v>
+        <v>0.001629090267806536</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0009173077121364802</v>
+        <v>0.02955908663260723</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04792210366315144</v>
+        <v>0.06241696662282655</v>
       </c>
       <c r="V16" t="n">
-        <v>0.003726307178360938</v>
+        <v>0.0763501563788142</v>
       </c>
       <c r="W16" t="n">
-        <v>0.07145576970755195</v>
+        <v>0.04406044823975157</v>
       </c>
       <c r="X16" t="n">
-        <v>0.001033290256811768</v>
+        <v>0.008135500538873195</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.02160324707939347</v>
+        <v>0.06452660732726739</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.07594758274818776</v>
+        <v>0.03765010517592103</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.01182804138508443</v>
+        <v>0.004708658867211375</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.005844813041854973</v>
+        <v>0.003640936298239738</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.0605859460272295</v>
+        <v>0.03648721696261397</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.0007042712146037739</v>
+        <v>0.000198957274440735</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.0560730714838589</v>
+        <v>0.00493751775025357</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.06999971645633324</v>
+        <v>0.006414751584039675</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.01659817322183447</v>
+        <v>0.03815758236071402</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.1179941084073845</v>
+        <v>0.09854325898070752</v>
       </c>
     </row>
     <row r="17">
@@ -2270,94 +2270,94 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1.404433845704803</v>
+        <v>0.3051989606617996</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01840915096729095</v>
+        <v>0.01350624674050272</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00306819142969875</v>
+        <v>0.06275503582869063</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06920046297511029</v>
+        <v>0.003768402440360989</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02911047062389459</v>
+        <v>0.04342716841775349</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01735778608987339</v>
+        <v>0.006172572087143773</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02065544014118016</v>
+        <v>0.06676172885743688</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06732218202507309</v>
+        <v>0.04212005258265644</v>
       </c>
       <c r="M17" t="n">
-        <v>0.05394572660856177</v>
+        <v>0.03842575155072722</v>
       </c>
       <c r="N17" t="n">
-        <v>0.06699246946736824</v>
+        <v>0.064925795787988</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0214487489881972</v>
+        <v>0.05195447158123973</v>
       </c>
       <c r="P17" t="n">
-        <v>0.05211709955365197</v>
+        <v>0.005182766463779578</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.06064710020608993</v>
+        <v>0.0470334587945524</v>
       </c>
       <c r="R17" t="n">
-        <v>0.002247636455941826</v>
+        <v>0.02502391873221257</v>
       </c>
       <c r="S17" t="n">
-        <v>0.00852524516034902</v>
+        <v>0.0400655008576061</v>
       </c>
       <c r="T17" t="n">
-        <v>0.01548259292775355</v>
+        <v>0.006828138494936858</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0300959477672199</v>
+        <v>0.0238238070427614</v>
       </c>
       <c r="V17" t="n">
-        <v>0.0197654915001438</v>
+        <v>0.04867946522255982</v>
       </c>
       <c r="W17" t="n">
-        <v>0.06831435710217783</v>
+        <v>0.04494001034988833</v>
       </c>
       <c r="X17" t="n">
-        <v>0.06742786919981904</v>
+        <v>0.006663727875874717</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.0688131711163079</v>
+        <v>0.04086309645970965</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.02322761639589235</v>
+        <v>0.06360295734941306</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.03694419231273914</v>
+        <v>0.00060790900444776</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.01988762016204649</v>
+        <v>0.008318736532003046</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.05770524344727937</v>
+        <v>0.04937471503713477</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.005162914446160107</v>
+        <v>0.01705794604128919</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.04263535474809151</v>
+        <v>0.06050061799358777</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.04735940553468385</v>
+        <v>0.04930185747112563</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.006130512647403891</v>
+        <v>0.06831414440261749</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.1218323568263161</v>
+        <v>0.124861488119469</v>
       </c>
     </row>
     <row r="18">
@@ -2380,94 +2380,94 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.5209724573707047</v>
+        <v>0.3437163421754419</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06707364611107366</v>
+        <v>0.08601082831257659</v>
       </c>
       <c r="G18" t="n">
-        <v>0.004334632091033378</v>
+        <v>0.0004521888410717833</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0710676473799183</v>
+        <v>0.04351043799629196</v>
       </c>
       <c r="I18" t="n">
-        <v>0.06314562604713619</v>
+        <v>0.06794576875257347</v>
       </c>
       <c r="J18" t="n">
-        <v>0.038678543482046</v>
+        <v>0.003688988881083366</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01221803472867992</v>
+        <v>0.06149378084551371</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03537371790645189</v>
+        <v>0.005478084594732687</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02604385236779592</v>
+        <v>0.05614526159944408</v>
       </c>
       <c r="N18" t="n">
-        <v>0.07503414854119111</v>
+        <v>0.02387197596333009</v>
       </c>
       <c r="O18" t="n">
-        <v>0.08084446106210755</v>
+        <v>0.02785688388004339</v>
       </c>
       <c r="P18" t="n">
-        <v>0.004093124113562779</v>
+        <v>0.01494057553719732</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.03183892499881787</v>
+        <v>0.006417236850080354</v>
       </c>
       <c r="R18" t="n">
-        <v>0.04402408760864219</v>
+        <v>0.07096473763194321</v>
       </c>
       <c r="S18" t="n">
-        <v>0.01680053709963257</v>
+        <v>0.07006377792484024</v>
       </c>
       <c r="T18" t="n">
-        <v>0.009150356760134534</v>
+        <v>0.01711250602992792</v>
       </c>
       <c r="U18" t="n">
-        <v>0.005798740568310636</v>
+        <v>0.08405853922439356</v>
       </c>
       <c r="V18" t="n">
-        <v>0.03930625542395265</v>
+        <v>0.0474416541631608</v>
       </c>
       <c r="W18" t="n">
-        <v>0.07630525999489178</v>
+        <v>0.005635400825263376</v>
       </c>
       <c r="X18" t="n">
-        <v>0.02893932941016181</v>
+        <v>0.02068047597899845</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.07295982027172453</v>
+        <v>0.02553524638908753</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.0529683668391103</v>
+        <v>0.03985056825363834</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.008919074710354318</v>
+        <v>0.002152049196070816</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.03080381683330487</v>
+        <v>0.03537622327924906</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.01395330689792506</v>
+        <v>0.01586643333155028</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.02809554927304418</v>
+        <v>0.03812985592422279</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.0223561457509545</v>
+        <v>0.02947705136501151</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.02661328161845595</v>
+        <v>0.06274276536124113</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.0132597121095855</v>
+        <v>0.03710070306746218</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0.01299707087588766</v>
+        <v>-0.009381490673663104</v>
       </c>
     </row>
     <row r="19">
@@ -2490,94 +2490,94 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.416011532172353</v>
+        <v>0.6884604942952167</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04242783227813372</v>
+        <v>0.07770498305022568</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04892847367159057</v>
+        <v>0.08391540474395398</v>
       </c>
       <c r="H19" t="n">
-        <v>0.03731362688126663</v>
+        <v>0.04340930748266159</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03356609854787865</v>
+        <v>0.01658639958022225</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005334937214206167</v>
+        <v>0.08351186081877184</v>
       </c>
       <c r="K19" t="n">
-        <v>0.03610946127103551</v>
+        <v>0.003759454531750894</v>
       </c>
       <c r="L19" t="n">
-        <v>4.396489175769797e-06</v>
+        <v>0.03892532342019612</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02391117933611835</v>
+        <v>0.01356036194850682</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0382567015174606</v>
+        <v>0.06366566925533418</v>
       </c>
       <c r="O19" t="n">
-        <v>0.05242687435757946</v>
+        <v>0.001850867143534097</v>
       </c>
       <c r="P19" t="n">
-        <v>0.06377228846156141</v>
+        <v>0.02905400101674424</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.04037869421837861</v>
+        <v>0.003291516168943132</v>
       </c>
       <c r="R19" t="n">
-        <v>0.05984113308067291</v>
+        <v>0.03371885892369953</v>
       </c>
       <c r="S19" t="n">
-        <v>0.02299949818506019</v>
+        <v>0.04452062476280411</v>
       </c>
       <c r="T19" t="n">
-        <v>0.02006503352135301</v>
+        <v>0.03209408379330574</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01694763730156969</v>
+        <v>0.004064524031658117</v>
       </c>
       <c r="V19" t="n">
-        <v>0.06482467552602893</v>
+        <v>0.01464384134108065</v>
       </c>
       <c r="W19" t="n">
-        <v>0.03015942833685419</v>
+        <v>0.01995388068848609</v>
       </c>
       <c r="X19" t="n">
-        <v>0.05237090095535445</v>
+        <v>0.03079987594462353</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.00114731946219114</v>
+        <v>0.0212675537431092</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.05954059050473956</v>
+        <v>0.04076654112811726</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.06630369943556001</v>
+        <v>0.02215138768755251</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.005173364964091287</v>
+        <v>0.0773579403690475</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.04718658845083694</v>
+        <v>0.04449397845925789</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.01353319041465316</v>
+        <v>0.01971951645477428</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.01482449093810939</v>
+        <v>0.02224409468436031</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.05628637695956246</v>
+        <v>0.07959143211258671</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.04636550771897732</v>
+        <v>0.03337671671469179</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.02929939039742637</v>
+        <v>-0.02703299766879391</v>
       </c>
     </row>
     <row r="20">
@@ -2600,94 +2600,94 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1234289430784456</v>
+        <v>0.1248351507013035</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06526390980529781</v>
+        <v>0.03344517383929368</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05804231400741688</v>
+        <v>0.05510633669695156</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04633635404345906</v>
+        <v>0.03542642323209798</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0295050053217628</v>
+        <v>0.04372780541997534</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05315170448821775</v>
+        <v>0.05836384016257945</v>
       </c>
       <c r="K20" t="n">
-        <v>0.006284422886030417</v>
+        <v>0.0009206271923142256</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0496804353304055</v>
+        <v>0.07221896019320613</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0301515862810984</v>
+        <v>0.05072418609940587</v>
       </c>
       <c r="N20" t="n">
-        <v>0.01350754352882721</v>
+        <v>0.02168504125021283</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0180669093815276</v>
+        <v>0.06286587723202493</v>
       </c>
       <c r="P20" t="n">
-        <v>0.02754164649259747</v>
+        <v>0.01341215718999214</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.05899881402045643</v>
+        <v>0.01590922876878943</v>
       </c>
       <c r="R20" t="n">
-        <v>0.063706085767887</v>
+        <v>0.03817262907961311</v>
       </c>
       <c r="S20" t="n">
-        <v>0.05829446955181437</v>
+        <v>0.002654119073975324</v>
       </c>
       <c r="T20" t="n">
-        <v>0.02336956797071409</v>
+        <v>0.05851013117050762</v>
       </c>
       <c r="U20" t="n">
-        <v>0.06208812407046853</v>
+        <v>0.03903378871020223</v>
       </c>
       <c r="V20" t="n">
-        <v>0.01936199425310238</v>
+        <v>0.01261716725646264</v>
       </c>
       <c r="W20" t="n">
-        <v>0.008896846995906166</v>
+        <v>0.004423914245618566</v>
       </c>
       <c r="X20" t="n">
-        <v>0.001668896596721733</v>
+        <v>0.07266787663953571</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.03922077734093331</v>
+        <v>0.002563233961754666</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.005620164035455421</v>
+        <v>0.004748130193447435</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.0008326002702119637</v>
+        <v>0.006795500264876147</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.0381290309965443</v>
+        <v>0.07053332949321015</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.02970503816329175</v>
+        <v>0.07914732223227249</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.06040168646909088</v>
+        <v>0.06018981215417574</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.05554179582430249</v>
+        <v>0.05124857058049553</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.02238958247710041</v>
+        <v>0.0247277723069049</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.05424269362935785</v>
+        <v>0.008161045360104067</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.1371809647756392</v>
+        <v>0.152663515104255</v>
       </c>
     </row>
     <row r="21">
@@ -2710,94 +2710,94 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.4788983144725744</v>
+        <v>0.9923183481667286</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07758023099228017</v>
+        <v>0.08931195999562172</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03669270175210526</v>
+        <v>0.0145898867980919</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02385144620061122</v>
+        <v>0.03234738484862299</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01579726521368319</v>
+        <v>0.00950401643856518</v>
       </c>
       <c r="J21" t="n">
-        <v>0.03176438579112794</v>
+        <v>0.009936609524210984</v>
       </c>
       <c r="K21" t="n">
-        <v>0.008845344321166701</v>
+        <v>0.08814038428772965</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02747598876266117</v>
+        <v>0.04644369165852605</v>
       </c>
       <c r="M21" t="n">
-        <v>0.04699778936763171</v>
+        <v>0.009540359418826892</v>
       </c>
       <c r="N21" t="n">
-        <v>0.005095737034312989</v>
+        <v>0.05532144287497327</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01234703802340154</v>
+        <v>0.083220173631227</v>
       </c>
       <c r="P21" t="n">
-        <v>0.005261058386330247</v>
+        <v>0.0233549875827198</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01042008299754004</v>
+        <v>0.03255570377869863</v>
       </c>
       <c r="R21" t="n">
-        <v>0.06749374746913708</v>
+        <v>0.002644294442409851</v>
       </c>
       <c r="S21" t="n">
-        <v>0.04905283502977496</v>
+        <v>0.00699283937992733</v>
       </c>
       <c r="T21" t="n">
-        <v>0.04466420226030123</v>
+        <v>0.06635863823677811</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06268502832829256</v>
+        <v>0.004324956461605536</v>
       </c>
       <c r="V21" t="n">
-        <v>0.02852041023193374</v>
+        <v>0.004575486724421915</v>
       </c>
       <c r="W21" t="n">
-        <v>0.01124820910586644</v>
+        <v>0.02791112698078077</v>
       </c>
       <c r="X21" t="n">
-        <v>0.04829159757032715</v>
+        <v>0.005695560838671595</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.01167324295686019</v>
+        <v>0.09383919696865566</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.0385836912396415</v>
+        <v>0.08041181451129041</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.07227466741227312</v>
+        <v>0.0092763244659144</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.03737708703935846</v>
+        <v>0.004072996849675465</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.05103307383180734</v>
+        <v>0.01850732942895916</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.02167226826888315</v>
+        <v>0.08119334743123949</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.01222154026086395</v>
+        <v>0.002088801636865594</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.07020405811988092</v>
+        <v>0.07244739352586724</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.07087527203194618</v>
+        <v>0.02539329127912344</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.1076300077624839</v>
+        <v>0.1072516471118899</v>
       </c>
     </row>
     <row r="22">
@@ -2820,94 +2820,94 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1256655751655959</v>
+        <v>0.1214938735332455</v>
       </c>
       <c r="F22" t="n">
-        <v>0.03505150572479446</v>
+        <v>0.05390352739321656</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05310364791128525</v>
+        <v>0.03122431720794068</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01201111946778985</v>
+        <v>0.06339137284293331</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0509205195701949</v>
+        <v>0.04046114682262968</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02832327989072563</v>
+        <v>0.02070385866865934</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0272435358182332</v>
+        <v>0.03561782829655748</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0387264912797439</v>
+        <v>0.006246844360266732</v>
       </c>
       <c r="M22" t="n">
-        <v>0.00471602666094161</v>
+        <v>0.001730103135492336</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0472468563615421</v>
+        <v>0.05823972523312206</v>
       </c>
       <c r="O22" t="n">
-        <v>0.06197881350341782</v>
+        <v>0.01116942408452652</v>
       </c>
       <c r="P22" t="n">
-        <v>0.03812893199413896</v>
+        <v>0.04125136321201948</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.06429658113657984</v>
+        <v>0.0665296898208758</v>
       </c>
       <c r="R22" t="n">
-        <v>0.06443791047218288</v>
+        <v>0.0694044374275547</v>
       </c>
       <c r="S22" t="n">
-        <v>0.03011819601013694</v>
+        <v>0.04331107006876486</v>
       </c>
       <c r="T22" t="n">
-        <v>0.04933450486745807</v>
+        <v>0.02107275542777077</v>
       </c>
       <c r="U22" t="n">
-        <v>0.001790851747024204</v>
+        <v>0.002090033552078016</v>
       </c>
       <c r="V22" t="n">
-        <v>0.05398940854453777</v>
+        <v>0.03786651549478966</v>
       </c>
       <c r="W22" t="n">
-        <v>0.02084504927660187</v>
+        <v>0.04228087623669756</v>
       </c>
       <c r="X22" t="n">
-        <v>0.004769676797035123</v>
+        <v>0.05841761797857657</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.001507740301250168</v>
+        <v>0.06574455822233052</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.003352399876375439</v>
+        <v>0.03733140857282623</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.0660197863985667</v>
+        <v>0.004473304141900621</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.0554186987068807</v>
+        <v>0.06812482107835091</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.06555755929924242</v>
+        <v>0.03178625949835322</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.0001580688963072454</v>
+        <v>0.005370531807493069</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.04804988545935934</v>
+        <v>0.0304699995211729</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.007896343494873502</v>
+        <v>0.01715149885048022</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.06500661053278019</v>
+        <v>0.03463511104262029</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.1966239169325799</v>
+        <v>0.199689506267373</v>
       </c>
     </row>
     <row r="23">
@@ -2930,94 +2930,94 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.6054059876174144</v>
+        <v>0.4330315796009557</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05611277809984762</v>
+        <v>0.07051472576855722</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04922703414629261</v>
+        <v>0.06621895167510589</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001030325323319816</v>
+        <v>0.003201394943499139</v>
       </c>
       <c r="I23" t="n">
-        <v>0.05127840840882313</v>
+        <v>0.04696149140044176</v>
       </c>
       <c r="J23" t="n">
-        <v>0.008656402523986402</v>
+        <v>0.04770646200387074</v>
       </c>
       <c r="K23" t="n">
-        <v>0.07465663850665248</v>
+        <v>0.01261034228450397</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001318521208361198</v>
+        <v>0.06218226234534386</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01996029310062617</v>
+        <v>0.02919043227915046</v>
       </c>
       <c r="N23" t="n">
-        <v>0.01955734359034359</v>
+        <v>0.005272908148239328</v>
       </c>
       <c r="O23" t="n">
-        <v>0.009129922577332647</v>
+        <v>0.0008918552061843352</v>
       </c>
       <c r="P23" t="n">
-        <v>0.05472133184616242</v>
+        <v>0.002766709065711707</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.02882438373942414</v>
+        <v>0.06458097109740925</v>
       </c>
       <c r="R23" t="n">
-        <v>0.06632277657350819</v>
+        <v>0.06905731875444283</v>
       </c>
       <c r="S23" t="n">
-        <v>0.01008374173789929</v>
+        <v>0.04117207303727097</v>
       </c>
       <c r="T23" t="n">
-        <v>0.02213732982116313</v>
+        <v>0.07378019983232154</v>
       </c>
       <c r="U23" t="n">
-        <v>0.06525791759610675</v>
+        <v>0.06204211007326414</v>
       </c>
       <c r="V23" t="n">
-        <v>0.03421620083774463</v>
+        <v>0.002638839084074113</v>
       </c>
       <c r="W23" t="n">
-        <v>0.04886001919193685</v>
+        <v>0.009332427224045571</v>
       </c>
       <c r="X23" t="n">
-        <v>0.07911746711659792</v>
+        <v>0.007868638670471547</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.006987954003362011</v>
+        <v>0.002409766274130567</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.04917210169495825</v>
+        <v>0.0306607065487944</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.01275556524359946</v>
+        <v>0.007031367320892542</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.0005280008477857866</v>
+        <v>0.03505443794296754</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.06309721973487119</v>
+        <v>0.05322940090539539</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.007003149823249865</v>
+        <v>0.06739535821254262</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.03021238974477445</v>
+        <v>0.073217947636996</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.07361091341573056</v>
+        <v>0.009235169100506051</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.0561638695455395</v>
+        <v>0.04377573316386648</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.2156192224543509</v>
+        <v>0.219941229812031</v>
       </c>
     </row>
     <row r="24">
@@ -3040,94 +3040,94 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.5922038648490845</v>
+        <v>0.3223993489618601</v>
       </c>
       <c r="F24" t="n">
-        <v>0.007725127710752296</v>
+        <v>0.02428862656284816</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0434440250300632</v>
+        <v>0.06780401504928986</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03980017841244374</v>
+        <v>0.009036389566636494</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0210307872366344</v>
+        <v>0.04758239923954291</v>
       </c>
       <c r="J24" t="n">
-        <v>0.06417527235153332</v>
+        <v>0.04057908065076732</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02496148751807862</v>
+        <v>0.03383548435878643</v>
       </c>
       <c r="L24" t="n">
-        <v>0.05287582986313259</v>
+        <v>0.05539941927605662</v>
       </c>
       <c r="M24" t="n">
-        <v>0.04571884387305784</v>
+        <v>0.02894565624067268</v>
       </c>
       <c r="N24" t="n">
-        <v>0.006687881261533089</v>
+        <v>0.04843831535804165</v>
       </c>
       <c r="O24" t="n">
-        <v>0.07205667966132602</v>
+        <v>0.02312478531467248</v>
       </c>
       <c r="P24" t="n">
-        <v>0.006230511443840988</v>
+        <v>0.02588551404343343</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.006935187911933376</v>
+        <v>0.01710139054067049</v>
       </c>
       <c r="R24" t="n">
-        <v>0.07223813342303627</v>
+        <v>0.04920166928495782</v>
       </c>
       <c r="S24" t="n">
-        <v>0.006076862299006433</v>
+        <v>0.02346932978470192</v>
       </c>
       <c r="T24" t="n">
-        <v>0.03118075859612361</v>
+        <v>0.02672998658044139</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06770123607000475</v>
+        <v>0.002820513060478434</v>
       </c>
       <c r="V24" t="n">
-        <v>0.06064653332023777</v>
+        <v>0.03855102710619926</v>
       </c>
       <c r="W24" t="n">
-        <v>0.06538044349252063</v>
+        <v>0.05281097814120234</v>
       </c>
       <c r="X24" t="n">
-        <v>0.02366228078230466</v>
+        <v>0.002793104770010723</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.02198652840117511</v>
+        <v>0.05363831073686512</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.08088655332899006</v>
+        <v>0.05080465468931091</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.02267994782700621</v>
+        <v>0.03599509368154435</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.01513782241941909</v>
+        <v>0.0142645528931485</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.001813670180079243</v>
+        <v>0.05380990943543745</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.06098894663277182</v>
+        <v>0.04082887839940086</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.02972974356227175</v>
+        <v>0.06509748211248137</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.03602599138865722</v>
+        <v>0.05924164860837889</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.01222273600206597</v>
+        <v>0.007921784514022236</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.04050496729622739</v>
+        <v>0.007493745544609639</v>
       </c>
     </row>
     <row r="25">
@@ -3150,94 +3150,94 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1.201577243497206</v>
+        <v>0.4867874687074666</v>
       </c>
       <c r="F25" t="n">
-        <v>0.04210514107268613</v>
+        <v>0.01430093293977503</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04720658079998227</v>
+        <v>0.03422543814512565</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009483173602343958</v>
+        <v>0.003923120813437984</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0173738353644459</v>
+        <v>0.06303181221259428</v>
       </c>
       <c r="J25" t="n">
-        <v>0.05910374236073967</v>
+        <v>0.01906438635486303</v>
       </c>
       <c r="K25" t="n">
-        <v>0.02123074703132425</v>
+        <v>0.07055036711887817</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03539083771636687</v>
+        <v>0.03320848992026998</v>
       </c>
       <c r="M25" t="n">
-        <v>0.05241175944920983</v>
+        <v>0.003124920649596454</v>
       </c>
       <c r="N25" t="n">
-        <v>0.06179952536278136</v>
+        <v>1.813587644274612e-05</v>
       </c>
       <c r="O25" t="n">
-        <v>0.02367035702222404</v>
+        <v>0.04482157327557244</v>
       </c>
       <c r="P25" t="n">
-        <v>0.002379882121703458</v>
+        <v>0.03818801609111118</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01050556311813658</v>
+        <v>0.007951327341669673</v>
       </c>
       <c r="R25" t="n">
-        <v>0.06395187401585761</v>
+        <v>0.04239287612658305</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0215764574676947</v>
+        <v>0.01361467849763864</v>
       </c>
       <c r="T25" t="n">
-        <v>0.05403390066620056</v>
+        <v>0.06516666671587369</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02329126110352253</v>
+        <v>0.07171861200905946</v>
       </c>
       <c r="V25" t="n">
-        <v>0.06866491921828315</v>
+        <v>0.05522432467170149</v>
       </c>
       <c r="W25" t="n">
-        <v>0.06368129658167984</v>
+        <v>0.02789455255386827</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0236130555127288</v>
+        <v>0.04119188547811097</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.05489740348254827</v>
+        <v>0.05735025649073205</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.01042575014809861</v>
+        <v>0.03095057694187478</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.02254375743287428</v>
+        <v>0.006417732668638496</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.01570091570728239</v>
+        <v>0.05737986811402599</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.003698943317771114</v>
+        <v>0.02294458544928234</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.07010393324738523</v>
+        <v>0.04783313230958529</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.04377500876633984</v>
+        <v>0.05885710884975276</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.02032221074478746</v>
+        <v>0.04889484260565408</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.06559302380711085</v>
+        <v>0.01975977977828189</v>
       </c>
       <c r="AH25" t="n">
-        <v>-0.02155564624548765</v>
+        <v>-0.00379867802964669</v>
       </c>
     </row>
     <row r="26">
@@ -3260,94 +3260,94 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1332566085201776</v>
+        <v>0.1274728209283248</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01720556900706817</v>
+        <v>0.06793492543297465</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02018291928599925</v>
+        <v>0.05836947221523694</v>
       </c>
       <c r="H26" t="n">
-        <v>0.004511114728382741</v>
+        <v>0.001991447294100997</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01427334835039579</v>
+        <v>0.02689422396783794</v>
       </c>
       <c r="J26" t="n">
-        <v>0.06241043702394669</v>
+        <v>0.06990797202290974</v>
       </c>
       <c r="K26" t="n">
-        <v>0.05343786842412548</v>
+        <v>0.03184622799627745</v>
       </c>
       <c r="L26" t="n">
-        <v>0.06763551543330486</v>
+        <v>0.02937466823778057</v>
       </c>
       <c r="M26" t="n">
-        <v>0.06580810387067243</v>
+        <v>0.05961821778696103</v>
       </c>
       <c r="N26" t="n">
-        <v>0.05720305574435126</v>
+        <v>0.03313885509484999</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02916753941071286</v>
+        <v>0.0596609211166996</v>
       </c>
       <c r="P26" t="n">
-        <v>0.05063785506765125</v>
+        <v>0.04818923047923886</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.05338989858074244</v>
+        <v>0.07792623704534436</v>
       </c>
       <c r="R26" t="n">
-        <v>0.06033320761093891</v>
+        <v>0.005624378158507803</v>
       </c>
       <c r="S26" t="n">
-        <v>0.02097914456926364</v>
+        <v>0.007146987690487964</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0509726152035647</v>
+        <v>0.06313638893644337</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05131384880421191</v>
+        <v>0.07218335710522146</v>
       </c>
       <c r="V26" t="n">
-        <v>0.001670764452224515</v>
+        <v>0.005017444482030778</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0222914641659296</v>
+        <v>0.04001786020714969</v>
       </c>
       <c r="X26" t="n">
-        <v>0.03158547191957919</v>
+        <v>0.000188849494080723</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.05315221676465526</v>
+        <v>0.001932948749050658</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.0164472434746343</v>
+        <v>0.04222349123040117</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.02249896817891316</v>
+        <v>0.007727766529826942</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.003019125391099362</v>
+        <v>0.003470276032333932</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.0465939170745095</v>
+        <v>0.05077612906354186</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.01216215532221395</v>
+        <v>0.01217489901403733</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.05933213490189273</v>
+        <v>0.01043027354875049</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.04360255791493273</v>
+        <v>0.06551694163994382</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.008181939324083282</v>
+        <v>0.0475796094279799</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.1758872547555272</v>
+        <v>0.2188546325011767</v>
       </c>
     </row>
     <row r="27">
@@ -3370,94 +3370,94 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.797082534947874</v>
+        <v>0.3071801004582475</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0317328667994425</v>
+        <v>0.00202817870231836</v>
       </c>
       <c r="G27" t="n">
-        <v>0.04490665225097464</v>
+        <v>0.03064127829297398</v>
       </c>
       <c r="H27" t="n">
-        <v>0.002529441559399778</v>
+        <v>0.001924842936162092</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01472169810013153</v>
+        <v>0.07852136263675995</v>
       </c>
       <c r="J27" t="n">
-        <v>0.03422508659640106</v>
+        <v>0.01664809569258426</v>
       </c>
       <c r="K27" t="n">
-        <v>0.01760247893365317</v>
+        <v>0.05956640511040782</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0555316089041095</v>
+        <v>0.05113309783518322</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0571376719277852</v>
+        <v>0.04271758792345066</v>
       </c>
       <c r="N27" t="n">
-        <v>0.03020449042761788</v>
+        <v>0.07353684263264793</v>
       </c>
       <c r="O27" t="n">
-        <v>0.05528560130592664</v>
+        <v>0.0264977559729837</v>
       </c>
       <c r="P27" t="n">
-        <v>0.05037745616639502</v>
+        <v>0.002320649102268465</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.02339186438384586</v>
+        <v>0.02621897960098598</v>
       </c>
       <c r="R27" t="n">
-        <v>0.05899111603188383</v>
+        <v>0.001189888087751335</v>
       </c>
       <c r="S27" t="n">
-        <v>0.04749998467735645</v>
+        <v>0.08248576139236374</v>
       </c>
       <c r="T27" t="n">
-        <v>0.03626235645686306</v>
+        <v>0.03687125744457255</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02437658371512281</v>
+        <v>0.03733322425920593</v>
       </c>
       <c r="V27" t="n">
-        <v>4.656079936226078e-06</v>
+        <v>0.02108884493463024</v>
       </c>
       <c r="W27" t="n">
-        <v>0.03459058217071063</v>
+        <v>0.03986978923668415</v>
       </c>
       <c r="X27" t="n">
-        <v>0.05827580580735028</v>
+        <v>0.009807226927550448</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.02131903913854095</v>
+        <v>0.08478219416618422</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.03461048627499763</v>
+        <v>0.02173506966086806</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.01914365534804452</v>
+        <v>0.07095176641192043</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.06165968869256758</v>
+        <v>0.06615788647761951</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.04670471489628619</v>
+        <v>0.01906517913198157</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.02299040600701114</v>
+        <v>0.0008171414161366278</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.03449429174545222</v>
+        <v>0.03880938157387832</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.03033127469194585</v>
+        <v>0.02517462313301294</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.0510984409102478</v>
+        <v>0.03210568930691367</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.1937367866898035</v>
+        <v>0.1926788316990106</v>
       </c>
     </row>
     <row r="28">
@@ -3480,94 +3480,94 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1840683647467074</v>
+        <v>0.1896003694956577</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06513140298884718</v>
+        <v>0.05761369486256573</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04111136965898447</v>
+        <v>0.04248041014051301</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02834973689393839</v>
+        <v>0.01726122219666247</v>
       </c>
       <c r="I28" t="n">
-        <v>0.05182525643561019</v>
+        <v>0.07267277988445654</v>
       </c>
       <c r="J28" t="n">
-        <v>0.06136110063653145</v>
+        <v>0.03836899647402047</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0557950236769245</v>
+        <v>0.04677551019059367</v>
       </c>
       <c r="L28" t="n">
-        <v>0.04415638699594584</v>
+        <v>0.02311888336912808</v>
       </c>
       <c r="M28" t="n">
-        <v>0.04466602635084461</v>
+        <v>0.01301352091704399</v>
       </c>
       <c r="N28" t="n">
-        <v>0.01278192341964675</v>
+        <v>0.00366528247393291</v>
       </c>
       <c r="O28" t="n">
-        <v>0.03786076456767874</v>
+        <v>0.02041244742431212</v>
       </c>
       <c r="P28" t="n">
-        <v>0.01121326126976587</v>
+        <v>0.01698240195805013</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.02395563187132307</v>
+        <v>0.0001185683985359494</v>
       </c>
       <c r="R28" t="n">
-        <v>0.0256401259852076</v>
+        <v>0.06395408918365413</v>
       </c>
       <c r="S28" t="n">
-        <v>0.06079156201681797</v>
+        <v>0.0006503537748198412</v>
       </c>
       <c r="T28" t="n">
-        <v>0.05070456611864752</v>
+        <v>0.07944397669872558</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03333282859575572</v>
+        <v>0.07966158232613556</v>
       </c>
       <c r="V28" t="n">
-        <v>0.002945590963365792</v>
+        <v>0.003321249643397807</v>
       </c>
       <c r="W28" t="n">
-        <v>0.04007939146675348</v>
+        <v>0.04620247949677529</v>
       </c>
       <c r="X28" t="n">
-        <v>0.04426677935088669</v>
+        <v>0.03187878499657095</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.004322490462660408</v>
+        <v>0.002459448119974527</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.04718907459748755</v>
+        <v>0.02872456179946548</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.01369209976877451</v>
+        <v>0.05922445778944269</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.04471466631526146</v>
+        <v>0.04020866301702892</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.0555194304941238</v>
+        <v>0.06482826338080171</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.05440292261993932</v>
+        <v>0.04178670203186972</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.02288744762440546</v>
+        <v>0.0457914708928234</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.01646827540995748</v>
+        <v>0.04887981457549507</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.004834863443914161</v>
+        <v>0.01050038398320429</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.04917498039396215</v>
+        <v>0.03672226536399072</v>
       </c>
     </row>
     <row r="29">
@@ -3590,97 +3590,97 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.5827079874948234</v>
+        <v>0.271577053171904</v>
       </c>
       <c r="F29" t="n">
-        <v>0.07022008223041268</v>
+        <v>0.05188543912818083</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04595215424954569</v>
+        <v>0.00309122594928406</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0476155383560589</v>
+        <v>0.0234579951979585</v>
       </c>
       <c r="I29" t="n">
-        <v>0.03600390636085717</v>
+        <v>0.06434536340205375</v>
       </c>
       <c r="J29" t="n">
-        <v>0.03844147919051346</v>
+        <v>0.07675046682775914</v>
       </c>
       <c r="K29" t="n">
-        <v>0.009820824683321792</v>
+        <v>0.04097875893248308</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0276951424307667</v>
+        <v>0.05382563862862658</v>
       </c>
       <c r="M29" t="n">
-        <v>0.05944949463308076</v>
+        <v>0.007862232069243738</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0003720698608641305</v>
+        <v>0.02533263844370056</v>
       </c>
       <c r="O29" t="n">
-        <v>0.07200302020026156</v>
+        <v>0.04396079655153928</v>
       </c>
       <c r="P29" t="n">
-        <v>0.04404780369725143</v>
+        <v>0.06075203864986396</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.05951804326052985</v>
+        <v>0.0776793396035442</v>
       </c>
       <c r="R29" t="n">
-        <v>0.02032416276787058</v>
+        <v>0.01613556399933591</v>
       </c>
       <c r="S29" t="n">
-        <v>0.0358041230679254</v>
+        <v>0.02475482184780932</v>
       </c>
       <c r="T29" t="n">
-        <v>0.05857139704734264</v>
+        <v>0.0556720374129797</v>
       </c>
       <c r="U29" t="n">
-        <v>0.008562756117304029</v>
+        <v>0.0427674531415578</v>
       </c>
       <c r="V29" t="n">
-        <v>0.009640718025074499</v>
+        <v>0.0139382003240506</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0389579694896219</v>
+        <v>0.006142718264182563</v>
       </c>
       <c r="X29" t="n">
-        <v>0.01589249005737163</v>
+        <v>0.0161801350327219</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.005736194505085055</v>
+        <v>0.001001639400414142</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.06242299095305791</v>
+        <v>0.07840285487901276</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.02842339371206193</v>
+        <v>0.07037594261956809</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.009341074283357292</v>
+        <v>0.02034196854114398</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.01915849949183521</v>
+        <v>0.01861770604971064</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.04643661038181747</v>
+        <v>0.005317574357736649</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.02974055171358657</v>
+        <v>0.06098572436938428</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.02263942019039103</v>
+        <v>0.02075370504364099</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.07720808904283265</v>
+        <v>0.0186900213325129</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.07370706085546821</v>
+        <v>0.09232645547261413</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>